--- a/Server/Dataset/data.xlsx
+++ b/Server/Dataset/data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://adaniltd-my.sharepoint.com/personal/30014656_adani_com/Documents/Other Misc Data/Case Studies - IIT - Gandhinagar/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Sagar\Hackathon\GandiNagar-Hackathon\Server\Dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="54" documentId="8_{54AB5CB1-237E-42C0-81C6-A382FE2B446B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{53543C09-8CEE-4EC1-A411-AE3DB54BD74C}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF2421C9-CC0C-4618-A0C4-BC6D9C91203E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{3121BFEE-0315-4D90-BCFB-2DED462D6ED4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{3121BFEE-0315-4D90-BCFB-2DED462D6ED4}"/>
   </bookViews>
   <sheets>
     <sheet name="Grouping" sheetId="1" r:id="rId1"/>
@@ -30,8 +30,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -39,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2231" uniqueCount="723">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2788" uniqueCount="734">
   <si>
     <t>GL</t>
   </si>
@@ -2208,6 +2206,39 @@
   </si>
   <si>
     <t xml:space="preserve"> Current Tax</t>
+  </si>
+  <si>
+    <t>R2R</t>
+  </si>
+  <si>
+    <t>TRM</t>
+  </si>
+  <si>
+    <t>O2C</t>
+  </si>
+  <si>
+    <t>B2P</t>
+  </si>
+  <si>
+    <t>IDT</t>
+  </si>
+  <si>
+    <t>DT</t>
+  </si>
+  <si>
+    <t>IDT / TRM</t>
+  </si>
+  <si>
+    <t>BRS</t>
+  </si>
+  <si>
+    <t>R2R - FA</t>
+  </si>
+  <si>
+    <t>B2P / R2R / TRM</t>
+  </si>
+  <si>
+    <t>Department</t>
   </si>
 </sst>
 </file>
@@ -2215,15 +2246,22 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="165" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="164" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Adani Regular"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
@@ -2242,6 +2280,20 @@
       <sz val="10"/>
       <color theme="0"/>
       <name val="Adani Regular"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Adani Regular"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -2300,18 +2352,25 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -2319,23 +2378,36 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="4" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="4" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="3" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="9">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Comma 2" xfId="4" xr:uid="{2FF14F4C-E9D2-43F1-8850-77ED7A9DBDAB}"/>
+    <cellStyle name="Comma 3" xfId="5" xr:uid="{95DF6A29-4D7A-45AB-9A1E-7A2A2D2C4921}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="3" xr:uid="{48AA3501-362B-4A46-B827-897E4EDFAD0A}"/>
+    <cellStyle name="Normal 3" xfId="8" xr:uid="{295E57B9-FC55-4FBA-99A0-D21C5DF221A8}"/>
+    <cellStyle name="Normal 4" xfId="2" xr:uid="{926C0058-4A5A-401C-8246-3A2230A11A09}"/>
+    <cellStyle name="Normal 61" xfId="7" xr:uid="{837062E8-FAD4-4A6D-95CA-C2A5FEA2300C}"/>
+    <cellStyle name="Percent 2" xfId="6" xr:uid="{5302E4AE-36E0-427E-B19D-50E94C15ADFF}"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
@@ -2678,14 +2750,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{116636F4-0B36-42B8-8D5A-FFDCF19E5843}">
-  <dimension ref="A1:I564"/>
+  <dimension ref="A1:H609"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A541" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E559" sqref="E431:E559"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.5703125" customWidth="1"/>
@@ -2694,10 +2766,10 @@
     <col min="5" max="5" width="15.28515625" style="6" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="48.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="E1" s="13">
         <f>SUBTOTAL(109,E4:E5391)</f>
         <v>1.1508166790008545E-4</v>
@@ -2705,7 +2777,7 @@
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
     </row>
-    <row r="3" spans="1:7" s="1" customFormat="1">
+    <row r="3" spans="1:8" s="1" customFormat="1">
       <c r="A3" s="10" t="s">
         <v>0</v>
       </c>
@@ -2727,8 +2799,11 @@
       <c r="G3" s="12" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H3" s="1" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="3">
         <v>11100110</v>
       </c>
@@ -2750,8 +2825,11 @@
       <c r="G4" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="H4" s="15" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="3">
         <v>11100200</v>
       </c>
@@ -2773,8 +2851,11 @@
       <c r="G5" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5" s="15" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="3">
         <v>11100400</v>
       </c>
@@ -2796,8 +2877,11 @@
       <c r="G6" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="H6" s="15" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="3">
         <v>11100410</v>
       </c>
@@ -2819,8 +2903,11 @@
       <c r="G7" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="H7" s="15" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="3">
         <v>11100500</v>
       </c>
@@ -2842,8 +2929,11 @@
       <c r="G8" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="H8" s="15" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="3">
         <v>11100600</v>
       </c>
@@ -2865,8 +2955,11 @@
       <c r="G9" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="10" spans="1:7">
+      <c r="H9" s="15" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="3">
         <v>11100700</v>
       </c>
@@ -2888,8 +2981,11 @@
       <c r="G10" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="11" spans="1:7">
+      <c r="H10" s="15" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="3">
         <v>11200010</v>
       </c>
@@ -2911,8 +3007,11 @@
       <c r="G11" s="2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="12" spans="1:7">
+      <c r="H11" s="15" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="3">
         <v>11200030</v>
       </c>
@@ -2934,8 +3033,11 @@
       <c r="G12" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="13" spans="1:7">
+      <c r="H12" s="15" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="3">
         <v>11200100</v>
       </c>
@@ -2957,8 +3059,11 @@
       <c r="G13" s="2" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="14" spans="1:7">
+      <c r="H13" s="15" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="3">
         <v>11210900</v>
       </c>
@@ -2980,8 +3085,11 @@
       <c r="G14" s="2" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="15" spans="1:7">
+      <c r="H14" s="15" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="3">
         <v>11211970</v>
       </c>
@@ -3003,8 +3111,11 @@
       <c r="G15" s="2" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="H15" s="15" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="3">
         <v>11212000</v>
       </c>
@@ -3026,8 +3137,11 @@
       <c r="G16" s="2" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="17" spans="1:7">
+      <c r="H16" s="15" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="3">
         <v>11221150</v>
       </c>
@@ -3049,8 +3163,11 @@
       <c r="G17" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17" s="15" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="3">
         <v>11290820</v>
       </c>
@@ -3072,8 +3189,11 @@
       <c r="G18" s="2" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18" s="15" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="3">
         <v>11290840</v>
       </c>
@@ -3095,8 +3215,11 @@
       <c r="G19" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="20" spans="1:7">
+      <c r="H19" s="15" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="3">
         <v>11290850</v>
       </c>
@@ -3118,8 +3241,11 @@
       <c r="G20" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="21" spans="1:7">
+      <c r="H20" s="15" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="3">
         <v>11290860</v>
       </c>
@@ -3141,8 +3267,11 @@
       <c r="G21" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="22" spans="1:7">
+      <c r="H21" s="15" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="3">
         <v>11301200</v>
       </c>
@@ -3164,8 +3293,11 @@
       <c r="G22" s="2" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="H22" s="15" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="3">
         <v>11302100</v>
       </c>
@@ -3187,8 +3319,11 @@
       <c r="G23" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="H23" s="15" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="3">
         <v>11302150</v>
       </c>
@@ -3210,8 +3345,11 @@
       <c r="G24" s="2" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="25" spans="1:7">
+      <c r="H24" s="15" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="3">
         <v>11302200</v>
       </c>
@@ -3233,8 +3371,11 @@
       <c r="G25" s="2" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="26" spans="1:7">
+      <c r="H25" s="15" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="3">
         <v>11303000</v>
       </c>
@@ -3256,8 +3397,11 @@
       <c r="G26" s="2" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="27" spans="1:7">
+      <c r="H26" s="15" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="3">
         <v>11303100</v>
       </c>
@@ -3279,8 +3423,11 @@
       <c r="G27" s="2" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="28" spans="1:7">
+      <c r="H27" s="15" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="3">
         <v>11303300</v>
       </c>
@@ -3302,8 +3449,11 @@
       <c r="G28" s="2" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="29" spans="1:7">
+      <c r="H28" s="15" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="3">
         <v>11304100</v>
       </c>
@@ -3325,8 +3475,11 @@
       <c r="G29" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="30" spans="1:7">
+      <c r="H29" s="15" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="3">
         <v>11304120</v>
       </c>
@@ -3348,8 +3501,11 @@
       <c r="G30" s="2" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="31" spans="1:7">
+      <c r="H30" s="15" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="3">
         <v>11304200</v>
       </c>
@@ -3371,8 +3527,11 @@
       <c r="G31" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="32" spans="1:7">
+      <c r="H31" s="15" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="3">
         <v>11305100</v>
       </c>
@@ -3394,8 +3553,11 @@
       <c r="G32" s="2" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="33" spans="1:7">
+      <c r="H32" s="15" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="3">
         <v>11310450</v>
       </c>
@@ -3417,8 +3579,11 @@
       <c r="G33" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="34" spans="1:7">
+      <c r="H33" s="15" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="3">
         <v>11311110</v>
       </c>
@@ -3440,8 +3605,11 @@
       <c r="G34" s="2" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="35" spans="1:7">
+      <c r="H34" s="15" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="3">
         <v>11314200</v>
       </c>
@@ -3463,8 +3631,11 @@
       <c r="G35" s="2" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="36" spans="1:7">
+      <c r="H35" s="15" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="3">
         <v>11314220</v>
       </c>
@@ -3486,8 +3657,11 @@
       <c r="G36" s="2" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="37" spans="1:7">
+      <c r="H36" s="15" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="3">
         <v>11314240</v>
       </c>
@@ -3509,8 +3683,11 @@
       <c r="G37" s="2" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="H37" s="15" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="3">
         <v>11314250</v>
       </c>
@@ -3532,8 +3709,11 @@
       <c r="G38" s="2" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="39" spans="1:7">
+      <c r="H38" s="15" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="3">
         <v>11314290</v>
       </c>
@@ -3555,8 +3735,11 @@
       <c r="G39" s="2" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="40" spans="1:7">
+      <c r="H39" s="15" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="3">
         <v>11314300</v>
       </c>
@@ -3578,8 +3761,11 @@
       <c r="G40" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="41" spans="1:7">
+      <c r="H40" s="15" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="3">
         <v>11314310</v>
       </c>
@@ -3601,8 +3787,11 @@
       <c r="G41" s="2" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="42" spans="1:7">
+      <c r="H41" s="15" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="3">
         <v>11314330</v>
       </c>
@@ -3624,8 +3813,11 @@
       <c r="G42" s="2" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="43" spans="1:7">
+      <c r="H42" s="15" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="3">
         <v>11314350</v>
       </c>
@@ -3647,8 +3839,11 @@
       <c r="G43" s="2" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="44" spans="1:7">
+      <c r="H43" s="15" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="3">
         <v>11314370</v>
       </c>
@@ -3670,8 +3865,11 @@
       <c r="G44" s="2" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="45" spans="1:7">
+      <c r="H44" s="15" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="3">
         <v>11314380</v>
       </c>
@@ -3693,8 +3891,11 @@
       <c r="G45" s="2" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="46" spans="1:7">
+      <c r="H45" s="15" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="3">
         <v>11314390</v>
       </c>
@@ -3716,8 +3917,11 @@
       <c r="G46" s="2" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="47" spans="1:7">
+      <c r="H46" s="15" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="3">
         <v>11314440</v>
       </c>
@@ -3739,8 +3943,11 @@
       <c r="G47" s="2" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="48" spans="1:7">
+      <c r="H47" s="15" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="3">
         <v>11314450</v>
       </c>
@@ -3762,8 +3969,11 @@
       <c r="G48" s="2" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="49" spans="1:7">
+      <c r="H48" s="15" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="3">
         <v>11314460</v>
       </c>
@@ -3785,8 +3995,11 @@
       <c r="G49" s="2" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="50" spans="1:7">
+      <c r="H49" s="15" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="3">
         <v>11314470</v>
       </c>
@@ -3808,8 +4021,11 @@
       <c r="G50" s="2" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="51" spans="1:7">
+      <c r="H50" s="15" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="3">
         <v>11314480</v>
       </c>
@@ -3831,8 +4047,11 @@
       <c r="G51" s="2" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="52" spans="1:7">
+      <c r="H51" s="15" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="3">
         <v>11314700</v>
       </c>
@@ -3854,8 +4073,11 @@
       <c r="G52" s="2" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="53" spans="1:7">
+      <c r="H52" s="15" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="3">
         <v>11314810</v>
       </c>
@@ -3877,8 +4099,11 @@
       <c r="G53" s="2" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="54" spans="1:7">
+      <c r="H53" s="15" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="3">
         <v>11314820</v>
       </c>
@@ -3900,8 +4125,11 @@
       <c r="G54" s="2" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="55" spans="1:7">
+      <c r="H54" s="15" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="3">
         <v>11314830</v>
       </c>
@@ -3923,8 +4151,11 @@
       <c r="G55" s="2" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="56" spans="1:7">
+      <c r="H55" s="15" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="3">
         <v>11314870</v>
       </c>
@@ -3946,8 +4177,11 @@
       <c r="G56" s="2" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="57" spans="1:7">
+      <c r="H56" s="15" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="3">
         <v>11314880</v>
       </c>
@@ -3969,8 +4203,11 @@
       <c r="G57" s="2" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="58" spans="1:7">
+      <c r="H57" s="15" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="3">
         <v>11314990</v>
       </c>
@@ -3992,8 +4229,11 @@
       <c r="G58" s="2" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="59" spans="1:7">
+      <c r="H58" s="15" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="3">
         <v>11315020</v>
       </c>
@@ -4015,8 +4255,11 @@
       <c r="G59" s="2" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="60" spans="1:7">
+      <c r="H59" s="15" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="3">
         <v>11315600</v>
       </c>
@@ -4038,8 +4281,11 @@
       <c r="G60" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="61" spans="1:7">
+      <c r="H60" s="15" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="3">
         <v>11315660</v>
       </c>
@@ -4061,8 +4307,11 @@
       <c r="G61" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="62" spans="1:7">
+      <c r="H61" s="15" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="3">
         <v>11316000</v>
       </c>
@@ -4084,8 +4333,11 @@
       <c r="G62" s="2" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="63" spans="1:7">
+      <c r="H62" s="15" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="3">
         <v>11316600</v>
       </c>
@@ -4107,8 +4359,11 @@
       <c r="G63" s="2" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="64" spans="1:7">
+      <c r="H63" s="15" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="7">
         <v>11316920</v>
       </c>
@@ -4130,8 +4385,11 @@
       <c r="G64" s="2" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="65" spans="1:7">
+      <c r="H64" s="15" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="3">
         <v>11318200</v>
       </c>
@@ -4153,8 +4411,11 @@
       <c r="G65" s="2" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="66" spans="1:7">
+      <c r="H65" s="15" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="3">
         <v>11318510</v>
       </c>
@@ -4176,8 +4437,11 @@
       <c r="G66" s="2" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="67" spans="1:7">
+      <c r="H66" s="15" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="3">
         <v>11318850</v>
       </c>
@@ -4199,8 +4463,11 @@
       <c r="G67" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="68" spans="1:7">
+      <c r="H67" s="15" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="3">
         <v>11318890</v>
       </c>
@@ -4222,8 +4489,11 @@
       <c r="G68" s="2" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="69" spans="1:7">
+      <c r="H68" s="15" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="3">
         <v>11370300</v>
       </c>
@@ -4245,8 +4515,11 @@
       <c r="G69" s="2" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="70" spans="1:7">
+      <c r="H69" s="15" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="3">
         <v>11370500</v>
       </c>
@@ -4268,8 +4541,11 @@
       <c r="G70" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="71" spans="1:7">
+      <c r="H70" s="15" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="3">
         <v>11371190</v>
       </c>
@@ -4291,8 +4567,11 @@
       <c r="G71" s="2" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="72" spans="1:7">
+      <c r="H71" s="15" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="3">
         <v>11371209</v>
       </c>
@@ -4314,8 +4593,11 @@
       <c r="G72" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="73" spans="1:7">
+      <c r="H72" s="15" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="3">
         <v>11371219</v>
       </c>
@@ -4337,8 +4619,11 @@
       <c r="G73" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="74" spans="1:7">
+      <c r="H73" s="15" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="3">
         <v>11371221</v>
       </c>
@@ -4360,8 +4645,11 @@
       <c r="G74" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="75" spans="1:7">
+      <c r="H74" s="15" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="3">
         <v>11371224</v>
       </c>
@@ -4383,8 +4671,11 @@
       <c r="G75" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="76" spans="1:7">
+      <c r="H75" s="15" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="3">
         <v>11371227</v>
       </c>
@@ -4406,8 +4697,11 @@
       <c r="G76" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="77" spans="1:7">
+      <c r="H76" s="15" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="3">
         <v>11371228</v>
       </c>
@@ -4429,8 +4723,11 @@
       <c r="G77" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="78" spans="1:7">
+      <c r="H77" s="15" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="3">
         <v>11371229</v>
       </c>
@@ -4452,8 +4749,11 @@
       <c r="G78" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="79" spans="1:7">
+      <c r="H78" s="15" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="3">
         <v>11371230</v>
       </c>
@@ -4475,8 +4775,11 @@
       <c r="G79" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="80" spans="1:7">
+      <c r="H79" s="15" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="3">
         <v>11371232</v>
       </c>
@@ -4498,8 +4801,11 @@
       <c r="G80" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="81" spans="1:7">
+      <c r="H80" s="15" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="3">
         <v>11371233</v>
       </c>
@@ -4521,8 +4827,11 @@
       <c r="G81" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="82" spans="1:7">
+      <c r="H81" s="15" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="3">
         <v>11371234</v>
       </c>
@@ -4544,8 +4853,11 @@
       <c r="G82" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="83" spans="1:7">
+      <c r="H82" s="15" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="3">
         <v>11371235</v>
       </c>
@@ -4567,8 +4879,11 @@
       <c r="G83" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="84" spans="1:7">
+      <c r="H83" s="15" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="3">
         <v>11371236</v>
       </c>
@@ -4590,8 +4905,11 @@
       <c r="G84" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="85" spans="1:7">
+      <c r="H84" s="15" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="3">
         <v>11371309</v>
       </c>
@@ -4613,8 +4931,11 @@
       <c r="G85" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="86" spans="1:7">
+      <c r="H85" s="15" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="3">
         <v>11371319</v>
       </c>
@@ -4636,8 +4957,11 @@
       <c r="G86" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="87" spans="1:7">
+      <c r="H86" s="15" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="3">
         <v>11371321</v>
       </c>
@@ -4659,8 +4983,11 @@
       <c r="G87" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="88" spans="1:7">
+      <c r="H87" s="15" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="3">
         <v>11371324</v>
       </c>
@@ -4682,8 +5009,11 @@
       <c r="G88" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="89" spans="1:7">
+      <c r="H88" s="15" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="3">
         <v>11371327</v>
       </c>
@@ -4705,8 +5035,11 @@
       <c r="G89" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="90" spans="1:7">
+      <c r="H89" s="15" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="3">
         <v>11371328</v>
       </c>
@@ -4728,8 +5061,11 @@
       <c r="G90" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="91" spans="1:7">
+      <c r="H90" s="15" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="3">
         <v>11371329</v>
       </c>
@@ -4751,8 +5087,11 @@
       <c r="G91" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="92" spans="1:7">
+      <c r="H91" s="15" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="3">
         <v>11371330</v>
       </c>
@@ -4774,8 +5113,11 @@
       <c r="G92" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="93" spans="1:7">
+      <c r="H92" s="15" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="3">
         <v>11371332</v>
       </c>
@@ -4797,8 +5139,11 @@
       <c r="G93" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="94" spans="1:7">
+      <c r="H93" s="15" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="3">
         <v>11371333</v>
       </c>
@@ -4820,8 +5165,11 @@
       <c r="G94" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="95" spans="1:7">
+      <c r="H94" s="15" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="3">
         <v>11371334</v>
       </c>
@@ -4843,8 +5191,11 @@
       <c r="G95" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="96" spans="1:7">
+      <c r="H95" s="15" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="3">
         <v>11371335</v>
       </c>
@@ -4866,8 +5217,11 @@
       <c r="G96" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="97" spans="1:7">
+      <c r="H96" s="15" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="3">
         <v>11371336</v>
       </c>
@@ -4889,8 +5243,11 @@
       <c r="G97" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="98" spans="1:7">
+      <c r="H97" s="15" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="3">
         <v>11371409</v>
       </c>
@@ -4912,8 +5269,11 @@
       <c r="G98" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="99" spans="1:7">
+      <c r="H98" s="15" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="3">
         <v>11371419</v>
       </c>
@@ -4935,8 +5295,11 @@
       <c r="G99" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="100" spans="1:7">
+      <c r="H99" s="15" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="3">
         <v>11371421</v>
       </c>
@@ -4958,8 +5321,11 @@
       <c r="G100" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="101" spans="1:7">
+      <c r="H100" s="15" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="3">
         <v>11371424</v>
       </c>
@@ -4981,8 +5347,11 @@
       <c r="G101" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="102" spans="1:7">
+      <c r="H101" s="15" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="3">
         <v>11371427</v>
       </c>
@@ -5004,8 +5373,11 @@
       <c r="G102" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="103" spans="1:7">
+      <c r="H102" s="15" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="3">
         <v>11371428</v>
       </c>
@@ -5027,8 +5399,11 @@
       <c r="G103" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="104" spans="1:7">
+      <c r="H103" s="15" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="3">
         <v>11371429</v>
       </c>
@@ -5050,8 +5425,11 @@
       <c r="G104" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="105" spans="1:7">
+      <c r="H104" s="15" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8">
       <c r="A105" s="3">
         <v>11371430</v>
       </c>
@@ -5073,8 +5451,11 @@
       <c r="G105" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="106" spans="1:7">
+      <c r="H105" s="15" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8">
       <c r="A106" s="3">
         <v>11371432</v>
       </c>
@@ -5096,8 +5477,11 @@
       <c r="G106" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="107" spans="1:7">
+      <c r="H106" s="15" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8">
       <c r="A107" s="3">
         <v>11371433</v>
       </c>
@@ -5119,8 +5503,11 @@
       <c r="G107" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="108" spans="1:7">
+      <c r="H107" s="15" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8">
       <c r="A108" s="3">
         <v>11371434</v>
       </c>
@@ -5142,8 +5529,11 @@
       <c r="G108" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="109" spans="1:7">
+      <c r="H108" s="15" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8">
       <c r="A109" s="3">
         <v>11371435</v>
       </c>
@@ -5165,8 +5555,11 @@
       <c r="G109" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="110" spans="1:7">
+      <c r="H109" s="15" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8">
       <c r="A110" s="3">
         <v>11371436</v>
       </c>
@@ -5188,8 +5581,11 @@
       <c r="G110" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="111" spans="1:7">
+      <c r="H110" s="15" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8">
       <c r="A111" s="3">
         <v>11371509</v>
       </c>
@@ -5211,8 +5607,11 @@
       <c r="G111" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="112" spans="1:7">
+      <c r="H111" s="15" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8">
       <c r="A112" s="3">
         <v>11371519</v>
       </c>
@@ -5234,8 +5633,11 @@
       <c r="G112" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="113" spans="1:7">
+      <c r="H112" s="15" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8">
       <c r="A113" s="3">
         <v>11371521</v>
       </c>
@@ -5257,8 +5659,11 @@
       <c r="G113" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="114" spans="1:7">
+      <c r="H113" s="15" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8">
       <c r="A114" s="3">
         <v>11371527</v>
       </c>
@@ -5280,8 +5685,11 @@
       <c r="G114" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="115" spans="1:7">
+      <c r="H114" s="15" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8">
       <c r="A115" s="3">
         <v>11371528</v>
       </c>
@@ -5303,8 +5711,11 @@
       <c r="G115" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="116" spans="1:7">
+      <c r="H115" s="15" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8">
       <c r="A116" s="3">
         <v>11371533</v>
       </c>
@@ -5326,8 +5737,11 @@
       <c r="G116" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="117" spans="1:7">
+      <c r="H116" s="15" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8">
       <c r="A117" s="3">
         <v>11371535</v>
       </c>
@@ -5349,8 +5763,11 @@
       <c r="G117" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="118" spans="1:7">
+      <c r="H117" s="15" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8">
       <c r="A118" s="3">
         <v>11371536</v>
       </c>
@@ -5372,8 +5789,11 @@
       <c r="G118" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="119" spans="1:7">
+      <c r="H118" s="15" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8">
       <c r="A119" s="3">
         <v>11371609</v>
       </c>
@@ -5395,8 +5815,11 @@
       <c r="G119" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="120" spans="1:7">
+      <c r="H119" s="15" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8">
       <c r="A120" s="3">
         <v>11371619</v>
       </c>
@@ -5418,8 +5841,11 @@
       <c r="G120" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="121" spans="1:7">
+      <c r="H120" s="15" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8">
       <c r="A121" s="3">
         <v>11371621</v>
       </c>
@@ -5441,8 +5867,11 @@
       <c r="G121" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="122" spans="1:7">
+      <c r="H121" s="15" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8">
       <c r="A122" s="3">
         <v>11371627</v>
       </c>
@@ -5464,8 +5893,11 @@
       <c r="G122" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="123" spans="1:7">
+      <c r="H122" s="15" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8">
       <c r="A123" s="3">
         <v>11371628</v>
       </c>
@@ -5487,8 +5919,11 @@
       <c r="G123" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="124" spans="1:7">
+      <c r="H123" s="15" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8">
       <c r="A124" s="3">
         <v>11371633</v>
       </c>
@@ -5510,8 +5945,11 @@
       <c r="G124" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="125" spans="1:7">
+      <c r="H124" s="15" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8">
       <c r="A125" s="3">
         <v>11371635</v>
       </c>
@@ -5533,8 +5971,11 @@
       <c r="G125" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="126" spans="1:7">
+      <c r="H125" s="15" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8">
       <c r="A126" s="3">
         <v>11371636</v>
       </c>
@@ -5556,8 +5997,11 @@
       <c r="G126" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="127" spans="1:7">
+      <c r="H126" s="15" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8">
       <c r="A127" s="3">
         <v>11371709</v>
       </c>
@@ -5579,8 +6023,11 @@
       <c r="G127" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="128" spans="1:7">
+      <c r="H127" s="15" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8">
       <c r="A128" s="3">
         <v>11371719</v>
       </c>
@@ -5602,8 +6049,11 @@
       <c r="G128" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="129" spans="1:7">
+      <c r="H128" s="15" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8">
       <c r="A129" s="3">
         <v>11371721</v>
       </c>
@@ -5625,8 +6075,11 @@
       <c r="G129" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="130" spans="1:7">
+      <c r="H129" s="15" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8">
       <c r="A130" s="3">
         <v>11371724</v>
       </c>
@@ -5648,8 +6101,11 @@
       <c r="G130" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="131" spans="1:7">
+      <c r="H130" s="15" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8">
       <c r="A131" s="3">
         <v>11371727</v>
       </c>
@@ -5671,8 +6127,11 @@
       <c r="G131" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="132" spans="1:7">
+      <c r="H131" s="15" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8">
       <c r="A132" s="3">
         <v>11371728</v>
       </c>
@@ -5694,8 +6153,11 @@
       <c r="G132" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="133" spans="1:7">
+      <c r="H132" s="15" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8">
       <c r="A133" s="3">
         <v>11371729</v>
       </c>
@@ -5717,8 +6179,11 @@
       <c r="G133" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="134" spans="1:7">
+      <c r="H133" s="15" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8">
       <c r="A134" s="3">
         <v>11371730</v>
       </c>
@@ -5740,8 +6205,11 @@
       <c r="G134" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="135" spans="1:7">
+      <c r="H134" s="15" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8">
       <c r="A135" s="3">
         <v>11371732</v>
       </c>
@@ -5763,8 +6231,11 @@
       <c r="G135" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="136" spans="1:7">
+      <c r="H135" s="15" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8">
       <c r="A136" s="3">
         <v>11371733</v>
       </c>
@@ -5786,8 +6257,11 @@
       <c r="G136" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="137" spans="1:7">
+      <c r="H136" s="15" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8">
       <c r="A137" s="3">
         <v>11371734</v>
       </c>
@@ -5809,8 +6283,11 @@
       <c r="G137" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="138" spans="1:7">
+      <c r="H137" s="15" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8">
       <c r="A138" s="3">
         <v>11371735</v>
       </c>
@@ -5832,8 +6309,11 @@
       <c r="G138" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="139" spans="1:7">
+      <c r="H138" s="15" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8">
       <c r="A139" s="3">
         <v>11371736</v>
       </c>
@@ -5855,8 +6335,11 @@
       <c r="G139" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="140" spans="1:7">
+      <c r="H139" s="15" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8">
       <c r="A140" s="3">
         <v>11371855</v>
       </c>
@@ -5878,8 +6361,11 @@
       <c r="G140" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="141" spans="1:7">
+      <c r="H140" s="15" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8">
       <c r="A141" s="3">
         <v>11371857</v>
       </c>
@@ -5901,8 +6387,11 @@
       <c r="G141" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="142" spans="1:7">
+      <c r="H141" s="15" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8">
       <c r="A142" s="3">
         <v>11371868</v>
       </c>
@@ -5924,8 +6413,11 @@
       <c r="G142" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="143" spans="1:7">
+      <c r="H142" s="15" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8">
       <c r="A143" s="3">
         <v>11381450</v>
       </c>
@@ -5947,8 +6439,11 @@
       <c r="G143" s="2" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="144" spans="1:7">
+      <c r="H143" s="15" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8">
       <c r="A144" s="3">
         <v>11381470</v>
       </c>
@@ -5970,8 +6465,11 @@
       <c r="G144" s="2" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="145" spans="1:7">
+      <c r="H144" s="15" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8">
       <c r="A145" s="3">
         <v>11381870</v>
       </c>
@@ -5993,8 +6491,11 @@
       <c r="G145" s="2" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="146" spans="1:7">
+      <c r="H145" s="15" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8">
       <c r="A146" s="3">
         <v>11381920</v>
       </c>
@@ -6016,8 +6517,11 @@
       <c r="G146" s="2" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="147" spans="1:7">
+      <c r="H146" s="15" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8">
       <c r="A147" s="3">
         <v>11382136</v>
       </c>
@@ -6039,8 +6543,11 @@
       <c r="G147" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="148" spans="1:7">
+      <c r="H147" s="15" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8">
       <c r="A148" s="3">
         <v>11382236</v>
       </c>
@@ -6062,8 +6569,11 @@
       <c r="G148" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="149" spans="1:7">
+      <c r="H148" s="15" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8">
       <c r="A149" s="3">
         <v>11382330</v>
       </c>
@@ -6085,8 +6595,11 @@
       <c r="G149" s="2" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="150" spans="1:7">
+      <c r="H149" s="15" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8">
       <c r="A150" s="3">
         <v>11382336</v>
       </c>
@@ -6108,8 +6621,11 @@
       <c r="G150" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="151" spans="1:7">
+      <c r="H150" s="15" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8">
       <c r="A151" s="3">
         <v>11382380</v>
       </c>
@@ -6131,8 +6647,11 @@
       <c r="G151" s="2" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="152" spans="1:7">
+      <c r="H151" s="15" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8">
       <c r="A152" s="3">
         <v>11382740</v>
       </c>
@@ -6154,8 +6673,11 @@
       <c r="G152" s="2" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="153" spans="1:7">
+      <c r="H152" s="15" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8">
       <c r="A153" s="3">
         <v>11400100</v>
       </c>
@@ -6177,8 +6699,11 @@
       <c r="G153" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="154" spans="1:7">
+      <c r="H153" s="15" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8">
       <c r="A154" s="3">
         <v>11599010</v>
       </c>
@@ -6200,8 +6725,11 @@
       <c r="G154" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="155" spans="1:7">
+      <c r="H154" s="15" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8">
       <c r="A155" s="3">
         <v>11621160</v>
       </c>
@@ -6223,8 +6751,11 @@
       <c r="G155" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="156" spans="1:7">
+      <c r="H155" s="15" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8">
       <c r="A156" s="3">
         <v>11621161</v>
       </c>
@@ -6246,8 +6777,11 @@
       <c r="G156" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="157" spans="1:7">
+      <c r="H156" s="15" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8">
       <c r="A157" s="3">
         <v>11621162</v>
       </c>
@@ -6269,8 +6803,11 @@
       <c r="G157" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="158" spans="1:7">
+      <c r="H157" s="15" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8">
       <c r="A158" s="3">
         <v>11621163</v>
       </c>
@@ -6292,8 +6829,11 @@
       <c r="G158" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="159" spans="1:7">
+      <c r="H158" s="15" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8">
       <c r="A159" s="3">
         <v>11621164</v>
       </c>
@@ -6315,8 +6855,11 @@
       <c r="G159" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="160" spans="1:7">
+      <c r="H159" s="15" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8">
       <c r="A160" s="3">
         <v>11621170</v>
       </c>
@@ -6338,8 +6881,11 @@
       <c r="G160" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="161" spans="1:7">
+      <c r="H160" s="15" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8">
       <c r="A161" s="3">
         <v>11621181</v>
       </c>
@@ -6361,8 +6907,11 @@
       <c r="G161" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="162" spans="1:7">
+      <c r="H161" s="15" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8">
       <c r="A162" s="3">
         <v>11621182</v>
       </c>
@@ -6384,8 +6933,11 @@
       <c r="G162" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="163" spans="1:7">
+      <c r="H162" s="15" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8">
       <c r="A163" s="3">
         <v>11621190</v>
       </c>
@@ -6407,8 +6959,11 @@
       <c r="G163" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="164" spans="1:7">
+      <c r="H163" s="15" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8">
       <c r="A164" s="3">
         <v>11621191</v>
       </c>
@@ -6430,8 +6985,11 @@
       <c r="G164" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="165" spans="1:7">
+      <c r="H164" s="15" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8">
       <c r="A165" s="3">
         <v>11621192</v>
       </c>
@@ -6453,8 +7011,11 @@
       <c r="G165" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="166" spans="1:7">
+      <c r="H165" s="15" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8">
       <c r="A166" s="3">
         <v>11621193</v>
       </c>
@@ -6476,8 +7037,11 @@
       <c r="G166" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="167" spans="1:7">
+      <c r="H166" s="15" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8">
       <c r="A167" s="3">
         <v>11621194</v>
       </c>
@@ -6499,8 +7063,11 @@
       <c r="G167" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="168" spans="1:7">
+      <c r="H167" s="15" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8">
       <c r="A168" s="3">
         <v>11621200</v>
       </c>
@@ -6522,8 +7089,11 @@
       <c r="G168" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="169" spans="1:7">
+      <c r="H168" s="15" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8">
       <c r="A169" s="3">
         <v>11621202</v>
       </c>
@@ -6545,8 +7115,11 @@
       <c r="G169" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="170" spans="1:7">
+      <c r="H169" s="15" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8">
       <c r="A170" s="3">
         <v>11621212</v>
       </c>
@@ -6568,8 +7141,11 @@
       <c r="G170" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="171" spans="1:7">
+      <c r="H170" s="15" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8">
       <c r="A171" s="3">
         <v>11621220</v>
       </c>
@@ -6591,8 +7167,11 @@
       <c r="G171" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="172" spans="1:7">
+      <c r="H171" s="15" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8">
       <c r="A172" s="3">
         <v>11621221</v>
       </c>
@@ -6614,8 +7193,11 @@
       <c r="G172" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="173" spans="1:7">
+      <c r="H172" s="15" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8">
       <c r="A173" s="3">
         <v>11621222</v>
       </c>
@@ -6637,8 +7219,11 @@
       <c r="G173" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="174" spans="1:7">
+      <c r="H173" s="15" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8">
       <c r="A174" s="3">
         <v>11621223</v>
       </c>
@@ -6660,8 +7245,11 @@
       <c r="G174" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="175" spans="1:7">
+      <c r="H174" s="15" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8">
       <c r="A175" s="3">
         <v>11621230</v>
       </c>
@@ -6683,8 +7271,11 @@
       <c r="G175" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="176" spans="1:7">
+      <c r="H175" s="15" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8">
       <c r="A176" s="3">
         <v>11621231</v>
       </c>
@@ -6706,8 +7297,11 @@
       <c r="G176" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="177" spans="1:7">
+      <c r="H176" s="15" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8">
       <c r="A177" s="3">
         <v>11621232</v>
       </c>
@@ -6729,8 +7323,11 @@
       <c r="G177" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="178" spans="1:7">
+      <c r="H177" s="15" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8">
       <c r="A178" s="3">
         <v>11621233</v>
       </c>
@@ -6752,8 +7349,11 @@
       <c r="G178" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="179" spans="1:7">
+      <c r="H178" s="15" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8">
       <c r="A179" s="3">
         <v>11621240</v>
       </c>
@@ -6775,8 +7375,11 @@
       <c r="G179" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="180" spans="1:7">
+      <c r="H179" s="15" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8">
       <c r="A180" s="3">
         <v>11621241</v>
       </c>
@@ -6798,8 +7401,11 @@
       <c r="G180" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="181" spans="1:7">
+      <c r="H180" s="15" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8">
       <c r="A181" s="3">
         <v>11621242</v>
       </c>
@@ -6821,8 +7427,11 @@
       <c r="G181" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="182" spans="1:7">
+      <c r="H181" s="15" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8">
       <c r="A182" s="3">
         <v>11621250</v>
       </c>
@@ -6844,8 +7453,11 @@
       <c r="G182" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="183" spans="1:7">
+      <c r="H182" s="15" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8">
       <c r="A183" s="3">
         <v>11621251</v>
       </c>
@@ -6867,8 +7479,11 @@
       <c r="G183" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="184" spans="1:7">
+      <c r="H183" s="15" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8">
       <c r="A184" s="3">
         <v>11621252</v>
       </c>
@@ -6890,8 +7505,11 @@
       <c r="G184" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="185" spans="1:7">
+      <c r="H184" s="15" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8">
       <c r="A185" s="3">
         <v>11621253</v>
       </c>
@@ -6913,8 +7531,11 @@
       <c r="G185" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="186" spans="1:7">
+      <c r="H185" s="15" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8">
       <c r="A186" s="3">
         <v>11621254</v>
       </c>
@@ -6936,8 +7557,11 @@
       <c r="G186" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="187" spans="1:7">
+      <c r="H186" s="15" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8">
       <c r="A187" s="3">
         <v>11621260</v>
       </c>
@@ -6959,8 +7583,11 @@
       <c r="G187" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="188" spans="1:7">
+      <c r="H187" s="15" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8">
       <c r="A188" s="3">
         <v>11621261</v>
       </c>
@@ -6982,8 +7609,11 @@
       <c r="G188" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="189" spans="1:7">
+      <c r="H188" s="15" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8">
       <c r="A189" s="3">
         <v>11621270</v>
       </c>
@@ -7005,8 +7635,11 @@
       <c r="G189" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="190" spans="1:7">
+      <c r="H189" s="15" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8">
       <c r="A190" s="3">
         <v>11631080</v>
       </c>
@@ -7028,8 +7661,11 @@
       <c r="G190" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="191" spans="1:7">
+      <c r="H190" s="15" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8">
       <c r="A191" s="3">
         <v>11631082</v>
       </c>
@@ -7051,8 +7687,11 @@
       <c r="G191" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="192" spans="1:7">
+      <c r="H191" s="15" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8">
       <c r="A192" s="3">
         <v>11640110</v>
       </c>
@@ -7074,8 +7713,11 @@
       <c r="G192" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="193" spans="1:7">
+      <c r="H192" s="15" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8">
       <c r="A193" s="3">
         <v>11640120</v>
       </c>
@@ -7097,8 +7739,11 @@
       <c r="G193" s="2" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="194" spans="1:7">
+      <c r="H193" s="15" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8">
       <c r="A194" s="7">
         <v>11640140</v>
       </c>
@@ -7120,8 +7765,11 @@
       <c r="G194" s="2" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="195" spans="1:7">
+      <c r="H194" s="15" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8">
       <c r="A195" s="3">
         <v>11640150</v>
       </c>
@@ -7143,8 +7791,11 @@
       <c r="G195" s="2" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="196" spans="1:7">
+      <c r="H195" s="15" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8">
       <c r="A196" s="3">
         <v>11641110</v>
       </c>
@@ -7166,8 +7817,11 @@
       <c r="G196" s="2" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="197" spans="1:7">
+      <c r="H196" s="15" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="197" spans="1:8">
       <c r="A197" s="3">
         <v>11641160</v>
       </c>
@@ -7189,8 +7843,11 @@
       <c r="G197" s="2" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="198" spans="1:7">
+      <c r="H197" s="15" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8">
       <c r="A198" s="3">
         <v>11641170</v>
       </c>
@@ -7212,8 +7869,11 @@
       <c r="G198" s="2" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="199" spans="1:7">
+      <c r="H198" s="15" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="199" spans="1:8">
       <c r="A199" s="2">
         <v>11643410</v>
       </c>
@@ -7235,8 +7895,11 @@
       <c r="G199" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="200" spans="1:7">
+      <c r="H199" s="15" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="200" spans="1:8">
       <c r="A200" s="2">
         <v>11643411</v>
       </c>
@@ -7258,8 +7921,11 @@
       <c r="G200" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="201" spans="1:7">
+      <c r="H200" s="15" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="201" spans="1:8">
       <c r="A201" s="2">
         <v>11643412</v>
       </c>
@@ -7281,8 +7947,11 @@
       <c r="G201" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="202" spans="1:7">
+      <c r="H201" s="15" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="202" spans="1:8">
       <c r="A202" s="2">
         <v>11643413</v>
       </c>
@@ -7304,8 +7973,11 @@
       <c r="G202" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="203" spans="1:7">
+      <c r="H202" s="15" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="203" spans="1:8">
       <c r="A203" s="2">
         <v>11643414</v>
       </c>
@@ -7327,8 +7999,11 @@
       <c r="G203" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="204" spans="1:7">
+      <c r="H203" s="15" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="204" spans="1:8">
       <c r="A204" s="3">
         <v>11645120</v>
       </c>
@@ -7350,8 +8025,11 @@
       <c r="G204" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="205" spans="1:7">
+      <c r="H204" s="15" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="205" spans="1:8">
       <c r="A205" s="3">
         <v>11645121</v>
       </c>
@@ -7373,8 +8051,11 @@
       <c r="G205" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="206" spans="1:7">
+      <c r="H205" s="15" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="206" spans="1:8">
       <c r="A206" s="3">
         <v>11645122</v>
       </c>
@@ -7396,8 +8077,11 @@
       <c r="G206" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="207" spans="1:7">
+      <c r="H206" s="15" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="207" spans="1:8">
       <c r="A207" s="3">
         <v>11645123</v>
       </c>
@@ -7419,8 +8103,11 @@
       <c r="G207" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="208" spans="1:7">
+      <c r="H207" s="15" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="208" spans="1:8">
       <c r="A208" s="3">
         <v>11645124</v>
       </c>
@@ -7442,8 +8129,11 @@
       <c r="G208" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="209" spans="1:7">
+      <c r="H208" s="15" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="209" spans="1:8">
       <c r="A209" s="3">
         <v>12101900</v>
       </c>
@@ -7465,8 +8155,11 @@
       <c r="G209" s="2" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="210" spans="1:7">
+      <c r="H209" s="15" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="210" spans="1:8">
       <c r="A210" s="3">
         <v>12102050</v>
       </c>
@@ -7488,8 +8181,11 @@
       <c r="G210" s="2" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="211" spans="1:7">
+      <c r="H210" s="15" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="211" spans="1:8">
       <c r="A211" s="3">
         <v>12102060</v>
       </c>
@@ -7511,8 +8207,11 @@
       <c r="G211" s="2" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="212" spans="1:7">
+      <c r="H211" s="15" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="212" spans="1:8">
       <c r="A212" s="3">
         <v>12103200</v>
       </c>
@@ -7534,8 +8233,11 @@
       <c r="G212" s="2" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="213" spans="1:7">
+      <c r="H212" s="15" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="213" spans="1:8">
       <c r="A213" s="3">
         <v>12200200</v>
       </c>
@@ -7557,8 +8259,11 @@
       <c r="G213" s="2" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="214" spans="1:7">
+      <c r="H213" s="15" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="214" spans="1:8">
       <c r="A214" s="3">
         <v>12200500</v>
       </c>
@@ -7580,8 +8285,11 @@
       <c r="G214" s="2" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="215" spans="1:7">
+      <c r="H214" s="15" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="215" spans="1:8">
       <c r="A215" s="3">
         <v>12200600</v>
       </c>
@@ -7603,8 +8311,11 @@
       <c r="G215" s="2" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="216" spans="1:7">
+      <c r="H215" s="15" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="216" spans="1:8">
       <c r="A216" s="3">
         <v>12200700</v>
       </c>
@@ -7626,8 +8337,11 @@
       <c r="G216" s="2" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="217" spans="1:7">
+      <c r="H216" s="15" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="217" spans="1:8">
       <c r="A217" s="3">
         <v>12200900</v>
       </c>
@@ -7649,8 +8363,11 @@
       <c r="G217" s="2" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="218" spans="1:7">
+      <c r="H217" s="15" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="218" spans="1:8">
       <c r="A218" s="3">
         <v>12201000</v>
       </c>
@@ -7672,8 +8389,11 @@
       <c r="G218" s="2" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="219" spans="1:7">
+      <c r="H218" s="15" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="219" spans="1:8">
       <c r="A219" s="3">
         <v>12201100</v>
       </c>
@@ -7695,8 +8415,11 @@
       <c r="G219" s="2" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="220" spans="1:7">
+      <c r="H219" s="15" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="220" spans="1:8">
       <c r="A220" s="3">
         <v>12201200</v>
       </c>
@@ -7718,8 +8441,11 @@
       <c r="G220" s="2" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="221" spans="1:7">
+      <c r="H220" s="15" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="221" spans="1:8">
       <c r="A221" s="3">
         <v>12202000</v>
       </c>
@@ -7741,8 +8467,11 @@
       <c r="G221" s="2" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="222" spans="1:7">
+      <c r="H221" s="15" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="222" spans="1:8">
       <c r="A222" s="3">
         <v>12202400</v>
       </c>
@@ -7764,8 +8493,11 @@
       <c r="G222" s="2" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="223" spans="1:7">
+      <c r="H222" s="15" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="223" spans="1:8">
       <c r="A223" s="3">
         <v>12210000</v>
       </c>
@@ -7787,8 +8519,11 @@
       <c r="G223" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="224" spans="1:7">
+      <c r="H223" s="15" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="224" spans="1:8">
       <c r="A224" s="3">
         <v>12220500</v>
       </c>
@@ -7810,8 +8545,11 @@
       <c r="G224" s="2" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="225" spans="1:7">
+      <c r="H224" s="15" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="225" spans="1:8">
       <c r="A225" s="3">
         <v>12220600</v>
       </c>
@@ -7833,8 +8571,11 @@
       <c r="G225" s="2" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="226" spans="1:7">
+      <c r="H225" s="15" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="226" spans="1:8">
       <c r="A226" s="3">
         <v>12220700</v>
       </c>
@@ -7856,8 +8597,11 @@
       <c r="G226" s="2" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="227" spans="1:7">
+      <c r="H226" s="15" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="227" spans="1:8">
       <c r="A227" s="3">
         <v>12220900</v>
       </c>
@@ -7879,8 +8623,11 @@
       <c r="G227" s="2" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="228" spans="1:7">
+      <c r="H227" s="15" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="228" spans="1:8">
       <c r="A228" s="3">
         <v>12221000</v>
       </c>
@@ -7902,8 +8649,11 @@
       <c r="G228" s="2" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="229" spans="1:7">
+      <c r="H228" s="15" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="229" spans="1:8">
       <c r="A229" s="3">
         <v>12221100</v>
       </c>
@@ -7925,8 +8675,11 @@
       <c r="G229" s="2" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="230" spans="1:7">
+      <c r="H229" s="15" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="230" spans="1:8">
       <c r="A230" s="3">
         <v>12221200</v>
       </c>
@@ -7948,8 +8701,11 @@
       <c r="G230" s="2" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="231" spans="1:7">
+      <c r="H230" s="15" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="231" spans="1:8">
       <c r="A231" s="3">
         <v>12222000</v>
       </c>
@@ -7971,8 +8727,11 @@
       <c r="G231" s="2" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="232" spans="1:7">
+      <c r="H231" s="15" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="232" spans="1:8">
       <c r="A232" s="3">
         <v>12222330</v>
       </c>
@@ -7994,8 +8753,11 @@
       <c r="G232" s="2" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="233" spans="1:7">
+      <c r="H232" s="15" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="233" spans="1:8">
       <c r="A233" s="3">
         <v>12222900</v>
       </c>
@@ -8017,8 +8779,11 @@
       <c r="G233" s="2" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="234" spans="1:7">
+      <c r="H233" s="15" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="234" spans="1:8">
       <c r="A234" s="3">
         <v>12222910</v>
       </c>
@@ -8040,8 +8805,11 @@
       <c r="G234" s="2" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="235" spans="1:7">
+      <c r="H234" s="15" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="235" spans="1:8">
       <c r="A235" s="3">
         <v>12243030</v>
       </c>
@@ -8063,8 +8831,11 @@
       <c r="G235" s="2" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="236" spans="1:7">
+      <c r="H235" s="15" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="236" spans="1:8">
       <c r="A236" s="3">
         <v>12243080</v>
       </c>
@@ -8086,8 +8857,11 @@
       <c r="G236" s="2" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="237" spans="1:7">
+      <c r="H236" s="15" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="237" spans="1:8">
       <c r="A237" s="3">
         <v>21100016</v>
       </c>
@@ -8109,8 +8883,11 @@
       <c r="G237" s="2" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="238" spans="1:7">
+      <c r="H237" s="15" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="238" spans="1:8">
       <c r="A238" s="3">
         <v>21100017</v>
       </c>
@@ -8132,8 +8909,11 @@
       <c r="G238" s="2" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="239" spans="1:7">
+      <c r="H238" s="15" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="239" spans="1:8">
       <c r="A239" s="3">
         <v>21100026</v>
       </c>
@@ -8155,8 +8935,11 @@
       <c r="G239" s="2" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="240" spans="1:7">
+      <c r="H239" s="15" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="240" spans="1:8">
       <c r="A240" s="3">
         <v>21100027</v>
       </c>
@@ -8178,8 +8961,11 @@
       <c r="G240" s="2" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="241" spans="1:9">
+      <c r="H240" s="15" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="241" spans="1:8">
       <c r="A241" s="3">
         <v>21100100</v>
       </c>
@@ -8201,11 +8987,11 @@
       <c r="G241" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="I241">
-        <v>21100100</v>
-      </c>
-    </row>
-    <row r="242" spans="1:9">
+      <c r="H241" s="15" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="242" spans="1:8">
       <c r="A242" s="3">
         <v>21100600</v>
       </c>
@@ -8227,11 +9013,11 @@
       <c r="G242" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="I242">
-        <v>11302100</v>
-      </c>
-    </row>
-    <row r="243" spans="1:9">
+      <c r="H242" s="15" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="243" spans="1:8">
       <c r="A243" s="3">
         <v>21100700</v>
       </c>
@@ -8253,11 +9039,11 @@
       <c r="G243" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="I243">
-        <v>11303300</v>
-      </c>
-    </row>
-    <row r="244" spans="1:9">
+      <c r="H243" s="15" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="244" spans="1:8">
       <c r="A244" s="3">
         <v>21100800</v>
       </c>
@@ -8279,11 +9065,11 @@
       <c r="G244" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="I244">
-        <v>21199180</v>
-      </c>
-    </row>
-    <row r="245" spans="1:9">
+      <c r="H244" s="15" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="245" spans="1:8">
       <c r="A245" s="3">
         <v>21100980</v>
       </c>
@@ -8305,11 +9091,11 @@
       <c r="G245" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="I245">
-        <v>11303100</v>
-      </c>
-    </row>
-    <row r="246" spans="1:9">
+      <c r="H245" s="15" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="246" spans="1:8">
       <c r="A246" s="3">
         <v>21101000</v>
       </c>
@@ -8331,11 +9117,11 @@
       <c r="G246" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="I246">
-        <v>11303000</v>
-      </c>
-    </row>
-    <row r="247" spans="1:9">
+      <c r="H246" s="15" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="247" spans="1:8">
       <c r="A247" s="3">
         <v>21101010</v>
       </c>
@@ -8357,11 +9143,11 @@
       <c r="G247" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="I247">
-        <v>21100980</v>
-      </c>
-    </row>
-    <row r="248" spans="1:9">
+      <c r="H247" s="15" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="248" spans="1:8">
       <c r="A248" s="3">
         <v>21101300</v>
       </c>
@@ -8383,11 +9169,11 @@
       <c r="G248" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="I248">
-        <v>21110400</v>
-      </c>
-    </row>
-    <row r="249" spans="1:9">
+      <c r="H248" s="15" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="249" spans="1:8">
       <c r="A249" s="3">
         <v>21102000</v>
       </c>
@@ -8409,11 +9195,11 @@
       <c r="G249" s="2" t="s">
         <v>309</v>
       </c>
-      <c r="I249">
-        <v>21110600</v>
-      </c>
-    </row>
-    <row r="250" spans="1:9">
+      <c r="H249" s="15" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="250" spans="1:8">
       <c r="A250" s="3">
         <v>21103100</v>
       </c>
@@ -8435,11 +9221,11 @@
       <c r="G250" s="2" t="s">
         <v>309</v>
       </c>
-      <c r="I250">
-        <v>21100600</v>
-      </c>
-    </row>
-    <row r="251" spans="1:9">
+      <c r="H250" s="15" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="251" spans="1:8">
       <c r="A251" s="3">
         <v>21103200</v>
       </c>
@@ -8461,11 +9247,11 @@
       <c r="G251" s="2" t="s">
         <v>309</v>
       </c>
-      <c r="I251">
-        <v>21102000</v>
-      </c>
-    </row>
-    <row r="252" spans="1:9">
+      <c r="H251" s="15" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="252" spans="1:8">
       <c r="A252" s="3">
         <v>21103300</v>
       </c>
@@ -8487,11 +9273,11 @@
       <c r="G252" s="2" t="s">
         <v>309</v>
       </c>
-      <c r="I252">
-        <v>11302200</v>
-      </c>
-    </row>
-    <row r="253" spans="1:9">
+      <c r="H252" s="15" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="253" spans="1:8">
       <c r="A253" s="3">
         <v>21103400</v>
       </c>
@@ -8513,11 +9299,11 @@
       <c r="G253" s="2" t="s">
         <v>309</v>
       </c>
-      <c r="I253">
-        <v>11302150</v>
-      </c>
-    </row>
-    <row r="254" spans="1:9">
+      <c r="H253" s="15" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="254" spans="1:8">
       <c r="A254" s="3">
         <v>21103500</v>
       </c>
@@ -8539,11 +9325,11 @@
       <c r="G254" s="2" t="s">
         <v>309</v>
       </c>
-      <c r="I254">
-        <v>21100700</v>
-      </c>
-    </row>
-    <row r="255" spans="1:9">
+      <c r="H254" s="15" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="255" spans="1:8">
       <c r="A255" s="3">
         <v>21103600</v>
       </c>
@@ -8565,11 +9351,11 @@
       <c r="G255" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="I255">
-        <v>21119105</v>
-      </c>
-    </row>
-    <row r="256" spans="1:9">
+      <c r="H255" s="15" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="256" spans="1:8">
       <c r="A256" s="3">
         <v>21110400</v>
       </c>
@@ -8591,11 +9377,11 @@
       <c r="G256" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="I256">
-        <v>21119106</v>
-      </c>
-    </row>
-    <row r="257" spans="1:9">
+      <c r="H256" s="15" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="257" spans="1:8">
       <c r="A257" s="3">
         <v>21110600</v>
       </c>
@@ -8617,11 +9403,11 @@
       <c r="G257" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="I257">
-        <v>21119108</v>
-      </c>
-    </row>
-    <row r="258" spans="1:9">
+      <c r="H257" s="15" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="258" spans="1:8">
       <c r="A258" s="3">
         <v>21118000</v>
       </c>
@@ -8643,11 +9429,11 @@
       <c r="G258" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="I258">
-        <v>21119200</v>
-      </c>
-    </row>
-    <row r="259" spans="1:9">
+      <c r="H258" s="15" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="259" spans="1:8">
       <c r="A259" s="3">
         <v>21119101</v>
       </c>
@@ -8669,11 +9455,11 @@
       <c r="G259" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="I259">
-        <v>21119107</v>
-      </c>
-    </row>
-    <row r="260" spans="1:9">
+      <c r="H259" s="15" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="260" spans="1:8">
       <c r="A260" s="3">
         <v>21119105</v>
       </c>
@@ -8695,11 +9481,11 @@
       <c r="G260" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="I260">
-        <v>21119400</v>
-      </c>
-    </row>
-    <row r="261" spans="1:9">
+      <c r="H260" s="15" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="261" spans="1:8">
       <c r="A261" s="3">
         <v>21119106</v>
       </c>
@@ -8721,11 +9507,11 @@
       <c r="G261" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="I261">
-        <v>21119101</v>
-      </c>
-    </row>
-    <row r="262" spans="1:9">
+      <c r="H261" s="15" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="262" spans="1:8">
       <c r="A262" s="3">
         <v>21119107</v>
       </c>
@@ -8747,11 +9533,11 @@
       <c r="G262" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="I262">
-        <v>21119109</v>
-      </c>
-    </row>
-    <row r="263" spans="1:9">
+      <c r="H262" s="15" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="263" spans="1:8">
       <c r="A263" s="3">
         <v>21119108</v>
       </c>
@@ -8773,11 +9559,11 @@
       <c r="G263" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="I263">
-        <v>21119500</v>
-      </c>
-    </row>
-    <row r="264" spans="1:9">
+      <c r="H263" s="15" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="264" spans="1:8">
       <c r="A264" s="3">
         <v>21119109</v>
       </c>
@@ -8799,11 +9585,11 @@
       <c r="G264" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="I264">
-        <v>21119301</v>
-      </c>
-    </row>
-    <row r="265" spans="1:9">
+      <c r="H264" s="15" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="265" spans="1:8">
       <c r="A265" s="3">
         <v>21119111</v>
       </c>
@@ -8825,8 +9611,11 @@
       <c r="G265" s="2" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="266" spans="1:9">
+      <c r="H265" s="15" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="266" spans="1:8">
       <c r="A266" s="3">
         <v>21119200</v>
       </c>
@@ -8848,8 +9637,11 @@
       <c r="G266" s="2" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="267" spans="1:9">
+      <c r="H266" s="15" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="267" spans="1:8">
       <c r="A267" s="3">
         <v>21119201</v>
       </c>
@@ -8871,8 +9663,11 @@
       <c r="G267" s="2" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="268" spans="1:9">
+      <c r="H267" s="15" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="268" spans="1:8">
       <c r="A268" s="3">
         <v>21119300</v>
       </c>
@@ -8894,8 +9689,11 @@
       <c r="G268" s="2" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="269" spans="1:9">
+      <c r="H268" s="15" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="269" spans="1:8">
       <c r="A269" s="3">
         <v>21119301</v>
       </c>
@@ -8917,8 +9715,11 @@
       <c r="G269" s="2" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="270" spans="1:9">
+      <c r="H269" s="15" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="270" spans="1:8" ht="25.5">
       <c r="A270" s="3">
         <v>21119302</v>
       </c>
@@ -8940,8 +9741,11 @@
       <c r="G270" s="2" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="271" spans="1:9">
+      <c r="H270" s="15" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="271" spans="1:8">
       <c r="A271" s="3">
         <v>21119400</v>
       </c>
@@ -8963,8 +9767,11 @@
       <c r="G271" s="2" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="272" spans="1:9">
+      <c r="H271" s="15" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="272" spans="1:8">
       <c r="A272" s="3">
         <v>21119500</v>
       </c>
@@ -8986,8 +9793,11 @@
       <c r="G272" s="2" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="273" spans="1:7">
+      <c r="H272" s="15" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="273" spans="1:8">
       <c r="A273" s="3">
         <v>21119550</v>
       </c>
@@ -9009,8 +9819,11 @@
       <c r="G273" s="2" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="274" spans="1:7">
+      <c r="H273" s="15" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="274" spans="1:8">
       <c r="A274" s="3">
         <v>21119990</v>
       </c>
@@ -9032,8 +9845,11 @@
       <c r="G274" s="2" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="275" spans="1:7">
+      <c r="H274" s="15" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="275" spans="1:8">
       <c r="A275" s="3">
         <v>21120100</v>
       </c>
@@ -9055,8 +9871,11 @@
       <c r="G275" s="2" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="276" spans="1:7">
+      <c r="H275" s="15" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="276" spans="1:8">
       <c r="A276" s="3">
         <v>21130500</v>
       </c>
@@ -9078,8 +9897,11 @@
       <c r="G276" s="2" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="277" spans="1:7">
+      <c r="H276" s="15" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="277" spans="1:8">
       <c r="A277" s="3">
         <v>21170100</v>
       </c>
@@ -9101,8 +9923,11 @@
       <c r="G277" s="2" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="278" spans="1:7">
+      <c r="H277" s="15" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="278" spans="1:8">
       <c r="A278" s="3">
         <v>21170200</v>
       </c>
@@ -9124,8 +9949,11 @@
       <c r="G278" s="2" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="279" spans="1:7">
+      <c r="H278" s="15" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="279" spans="1:8">
       <c r="A279" s="3">
         <v>21170220</v>
       </c>
@@ -9147,8 +9975,11 @@
       <c r="G279" s="2" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="280" spans="1:7">
+      <c r="H279" s="15" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="280" spans="1:8">
       <c r="A280" s="3">
         <v>21170300</v>
       </c>
@@ -9170,8 +10001,11 @@
       <c r="G280" s="2" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="281" spans="1:7">
+      <c r="H280" s="15" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="281" spans="1:8">
       <c r="A281" s="3">
         <v>21170400</v>
       </c>
@@ -9193,8 +10027,11 @@
       <c r="G281" s="2" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="282" spans="1:7">
+      <c r="H281" s="15" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="282" spans="1:8">
       <c r="A282" s="3">
         <v>21170500</v>
       </c>
@@ -9216,8 +10053,11 @@
       <c r="G282" s="2" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="283" spans="1:7">
+      <c r="H282" s="15" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="283" spans="1:8">
       <c r="A283" s="3">
         <v>21170600</v>
       </c>
@@ -9239,8 +10079,11 @@
       <c r="G283" s="2" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="284" spans="1:7">
+      <c r="H283" s="15" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="284" spans="1:8">
       <c r="A284" s="3">
         <v>21170700</v>
       </c>
@@ -9262,8 +10105,11 @@
       <c r="G284" s="2" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="285" spans="1:7">
+      <c r="H284" s="15" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="285" spans="1:8">
       <c r="A285" s="3">
         <v>21170900</v>
       </c>
@@ -9285,8 +10131,11 @@
       <c r="G285" s="2" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="286" spans="1:7">
+      <c r="H285" s="15" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="286" spans="1:8">
       <c r="A286" s="3">
         <v>21174090</v>
       </c>
@@ -9308,8 +10157,11 @@
       <c r="G286" s="2" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="287" spans="1:7">
+      <c r="H286" s="15" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="287" spans="1:8">
       <c r="A287" s="7">
         <v>21175000</v>
       </c>
@@ -9331,8 +10183,11 @@
       <c r="G287" s="2" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="288" spans="1:7">
+      <c r="H287" s="15" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="288" spans="1:8">
       <c r="A288" s="3">
         <v>21175160</v>
       </c>
@@ -9354,8 +10209,11 @@
       <c r="G288" s="2" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="289" spans="1:7">
+      <c r="H288" s="15" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="289" spans="1:8">
       <c r="A289" s="3">
         <v>21175600</v>
       </c>
@@ -9377,8 +10235,11 @@
       <c r="G289" s="2" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="290" spans="1:7">
+      <c r="H289" s="15" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="290" spans="1:8">
       <c r="A290" s="3">
         <v>21180100</v>
       </c>
@@ -9400,8 +10261,11 @@
       <c r="G290" s="2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="291" spans="1:7">
+      <c r="H290" s="15" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="291" spans="1:8">
       <c r="A291" s="3">
         <v>21180230</v>
       </c>
@@ -9423,8 +10287,11 @@
       <c r="G291" s="2" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="292" spans="1:7">
+      <c r="H291" s="15" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="292" spans="1:8">
       <c r="A292" s="3">
         <v>21190450</v>
       </c>
@@ -9446,8 +10313,11 @@
       <c r="G292" s="2" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="293" spans="1:7">
+      <c r="H292" s="15" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="293" spans="1:8">
       <c r="A293" s="7">
         <v>21193000</v>
       </c>
@@ -9469,8 +10339,11 @@
       <c r="G293" s="2" t="s">
         <v>374</v>
       </c>
-    </row>
-    <row r="294" spans="1:7">
+      <c r="H293" s="15" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="294" spans="1:8">
       <c r="A294" s="7">
         <v>21193010</v>
       </c>
@@ -9492,8 +10365,11 @@
       <c r="G294" s="2" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="295" spans="1:7">
+      <c r="H294" s="15" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="295" spans="1:8">
       <c r="A295" s="7">
         <v>21193020</v>
       </c>
@@ -9515,8 +10391,11 @@
       <c r="G295" s="2" t="s">
         <v>377</v>
       </c>
-    </row>
-    <row r="296" spans="1:7">
+      <c r="H295" s="15" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="296" spans="1:8">
       <c r="A296" s="3">
         <v>21193030</v>
       </c>
@@ -9538,8 +10417,11 @@
       <c r="G296" s="2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="297" spans="1:7">
+      <c r="H296" s="15" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="297" spans="1:8">
       <c r="A297" s="8">
         <v>21193100</v>
       </c>
@@ -9561,8 +10443,11 @@
       <c r="G297" s="2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="298" spans="1:7">
+      <c r="H297" s="15" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="298" spans="1:8">
       <c r="A298" s="3">
         <v>21193120</v>
       </c>
@@ -9584,8 +10469,11 @@
       <c r="G298" s="2" t="s">
         <v>382</v>
       </c>
-    </row>
-    <row r="299" spans="1:7">
+      <c r="H298" s="15" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="299" spans="1:8">
       <c r="A299" s="3">
         <v>21193220</v>
       </c>
@@ -9607,8 +10495,11 @@
       <c r="G299" s="2" t="s">
         <v>382</v>
       </c>
-    </row>
-    <row r="300" spans="1:7">
+      <c r="H299" s="15" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="300" spans="1:8">
       <c r="A300" s="3">
         <v>21194119</v>
       </c>
@@ -9630,8 +10521,11 @@
       <c r="G300" s="2" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="301" spans="1:7">
+      <c r="H300" s="15" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="301" spans="1:8">
       <c r="A301" s="3">
         <v>21194121</v>
       </c>
@@ -9653,8 +10547,11 @@
       <c r="G301" s="2" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="302" spans="1:7">
+      <c r="H301" s="15" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="302" spans="1:8">
       <c r="A302" s="3">
         <v>21194124</v>
       </c>
@@ -9676,8 +10573,11 @@
       <c r="G302" s="2" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="303" spans="1:7">
+      <c r="H302" s="15" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="303" spans="1:8">
       <c r="A303" s="3">
         <v>21194127</v>
       </c>
@@ -9699,8 +10599,11 @@
       <c r="G303" s="2" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="304" spans="1:7">
+      <c r="H303" s="15" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="304" spans="1:8">
       <c r="A304" s="3">
         <v>21194128</v>
       </c>
@@ -9722,8 +10625,11 @@
       <c r="G304" s="2" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="305" spans="1:7">
+      <c r="H304" s="15" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="305" spans="1:8">
       <c r="A305" s="3">
         <v>21194129</v>
       </c>
@@ -9745,8 +10651,11 @@
       <c r="G305" s="2" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="306" spans="1:7">
+      <c r="H305" s="15" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="306" spans="1:8">
       <c r="A306" s="3">
         <v>21194130</v>
       </c>
@@ -9768,8 +10677,11 @@
       <c r="G306" s="2" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="307" spans="1:7">
+      <c r="H306" s="15" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="307" spans="1:8">
       <c r="A307" s="3">
         <v>21194133</v>
       </c>
@@ -9791,8 +10703,11 @@
       <c r="G307" s="2" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="308" spans="1:7">
+      <c r="H307" s="16" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="308" spans="1:8">
       <c r="A308" s="8">
         <v>21194134</v>
       </c>
@@ -9814,8 +10729,11 @@
       <c r="G308" s="2" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="309" spans="1:7">
+      <c r="H308" s="16" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="309" spans="1:8">
       <c r="A309" s="3">
         <v>21194136</v>
       </c>
@@ -9837,8 +10755,11 @@
       <c r="G309" s="2" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="310" spans="1:7">
+      <c r="H309" s="16" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="310" spans="1:8">
       <c r="A310" s="3">
         <v>21194209</v>
       </c>
@@ -9860,8 +10781,11 @@
       <c r="G310" s="2" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="311" spans="1:7">
+      <c r="H310" s="16" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="311" spans="1:8">
       <c r="A311" s="3">
         <v>21194219</v>
       </c>
@@ -9883,8 +10807,11 @@
       <c r="G311" s="2" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="312" spans="1:7">
+      <c r="H311" s="16" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="312" spans="1:8">
       <c r="A312" s="3">
         <v>21194221</v>
       </c>
@@ -9906,8 +10833,11 @@
       <c r="G312" s="2" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="313" spans="1:7">
+      <c r="H312" s="16" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="313" spans="1:8">
       <c r="A313" s="3">
         <v>21194224</v>
       </c>
@@ -9929,8 +10859,11 @@
       <c r="G313" s="2" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="314" spans="1:7">
+      <c r="H313" s="16" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="314" spans="1:8">
       <c r="A314" s="3">
         <v>21194227</v>
       </c>
@@ -9952,8 +10885,11 @@
       <c r="G314" s="2" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="315" spans="1:7">
+      <c r="H314" s="16" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="315" spans="1:8">
       <c r="A315" s="3">
         <v>21194228</v>
       </c>
@@ -9975,8 +10911,11 @@
       <c r="G315" s="2" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="316" spans="1:7">
+      <c r="H315" s="16" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="316" spans="1:8">
       <c r="A316" s="3">
         <v>21194229</v>
       </c>
@@ -9998,8 +10937,11 @@
       <c r="G316" s="2" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="317" spans="1:7">
+      <c r="H316" s="16" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="317" spans="1:8">
       <c r="A317" s="3">
         <v>21194230</v>
       </c>
@@ -10021,8 +10963,11 @@
       <c r="G317" s="2" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="318" spans="1:7">
+      <c r="H317" s="16" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="318" spans="1:8">
       <c r="A318" s="3">
         <v>21194232</v>
       </c>
@@ -10044,8 +10989,11 @@
       <c r="G318" s="2" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="319" spans="1:7">
+      <c r="H318" s="16" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="319" spans="1:8">
       <c r="A319" s="3">
         <v>21194233</v>
       </c>
@@ -10067,8 +11015,11 @@
       <c r="G319" s="2" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="320" spans="1:7">
+      <c r="H319" s="16" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="320" spans="1:8">
       <c r="A320" s="2">
         <v>21194234</v>
       </c>
@@ -10090,8 +11041,11 @@
       <c r="G320" s="2" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="321" spans="1:7">
+      <c r="H320" s="16" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="321" spans="1:8">
       <c r="A321" s="3">
         <v>21194235</v>
       </c>
@@ -10113,8 +11067,11 @@
       <c r="G321" s="2" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="322" spans="1:7">
+      <c r="H321" s="16" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="322" spans="1:8">
       <c r="A322" s="3">
         <v>21194236</v>
       </c>
@@ -10136,8 +11093,11 @@
       <c r="G322" s="2" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="323" spans="1:7">
+      <c r="H322" s="16" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="323" spans="1:8">
       <c r="A323" s="3">
         <v>21194309</v>
       </c>
@@ -10159,8 +11119,11 @@
       <c r="G323" s="2" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="324" spans="1:7">
+      <c r="H323" s="16" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="324" spans="1:8">
       <c r="A324" s="3">
         <v>21194319</v>
       </c>
@@ -10182,8 +11145,11 @@
       <c r="G324" s="2" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="325" spans="1:7">
+      <c r="H324" s="16" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="325" spans="1:8">
       <c r="A325" s="3">
         <v>21194321</v>
       </c>
@@ -10205,8 +11171,11 @@
       <c r="G325" s="2" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="326" spans="1:7">
+      <c r="H325" s="16" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="326" spans="1:8">
       <c r="A326" s="3">
         <v>21194324</v>
       </c>
@@ -10228,8 +11197,11 @@
       <c r="G326" s="2" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="327" spans="1:7">
+      <c r="H326" s="16" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="327" spans="1:8">
       <c r="A327" s="3">
         <v>21194327</v>
       </c>
@@ -10251,8 +11223,11 @@
       <c r="G327" s="2" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="328" spans="1:7">
+      <c r="H327" s="16" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="328" spans="1:8">
       <c r="A328" s="3">
         <v>21194328</v>
       </c>
@@ -10274,8 +11249,11 @@
       <c r="G328" s="2" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="329" spans="1:7">
+      <c r="H328" s="16" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="329" spans="1:8">
       <c r="A329" s="3">
         <v>21194329</v>
       </c>
@@ -10297,8 +11275,11 @@
       <c r="G329" s="2" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="330" spans="1:7">
+      <c r="H329" s="16" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="330" spans="1:8">
       <c r="A330" s="3">
         <v>21194330</v>
       </c>
@@ -10320,8 +11301,11 @@
       <c r="G330" s="2" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="331" spans="1:7">
+      <c r="H330" s="16" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="331" spans="1:8">
       <c r="A331" s="3">
         <v>21194332</v>
       </c>
@@ -10343,8 +11327,11 @@
       <c r="G331" s="2" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="332" spans="1:7">
+      <c r="H331" s="16" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="332" spans="1:8">
       <c r="A332" s="3">
         <v>21194333</v>
       </c>
@@ -10366,8 +11353,11 @@
       <c r="G332" s="2" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="333" spans="1:7">
+      <c r="H332" s="16" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="333" spans="1:8">
       <c r="A333" s="2">
         <v>21194334</v>
       </c>
@@ -10389,8 +11379,11 @@
       <c r="G333" s="2" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="334" spans="1:7">
+      <c r="H333" s="16" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="334" spans="1:8">
       <c r="A334" s="3">
         <v>21194335</v>
       </c>
@@ -10412,8 +11405,11 @@
       <c r="G334" s="2" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="335" spans="1:7">
+      <c r="H334" s="16" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="335" spans="1:8">
       <c r="A335" s="3">
         <v>21194336</v>
       </c>
@@ -10435,8 +11431,11 @@
       <c r="G335" s="2" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="336" spans="1:7">
+      <c r="H335" s="16" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="336" spans="1:8">
       <c r="A336" s="3">
         <v>21194409</v>
       </c>
@@ -10458,8 +11457,11 @@
       <c r="G336" s="2" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="337" spans="1:7">
+      <c r="H336" s="16" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="337" spans="1:8">
       <c r="A337" s="3">
         <v>21194419</v>
       </c>
@@ -10481,8 +11483,11 @@
       <c r="G337" s="2" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="338" spans="1:7">
+      <c r="H337" s="16" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="338" spans="1:8">
       <c r="A338" s="3">
         <v>21194421</v>
       </c>
@@ -10504,8 +11509,11 @@
       <c r="G338" s="2" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="339" spans="1:7">
+      <c r="H338" s="16" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="339" spans="1:8">
       <c r="A339" s="3">
         <v>21194424</v>
       </c>
@@ -10527,8 +11535,11 @@
       <c r="G339" s="2" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="340" spans="1:7">
+      <c r="H339" s="16" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="340" spans="1:8">
       <c r="A340" s="3">
         <v>21194427</v>
       </c>
@@ -10550,8 +11561,11 @@
       <c r="G340" s="2" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="341" spans="1:7">
+      <c r="H340" s="16" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="341" spans="1:8">
       <c r="A341" s="3">
         <v>21194428</v>
       </c>
@@ -10573,8 +11587,11 @@
       <c r="G341" s="2" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="342" spans="1:7">
+      <c r="H341" s="16" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="342" spans="1:8">
       <c r="A342" s="3">
         <v>21194429</v>
       </c>
@@ -10596,8 +11613,11 @@
       <c r="G342" s="2" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="343" spans="1:7">
+      <c r="H342" s="16" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="343" spans="1:8">
       <c r="A343" s="3">
         <v>21194430</v>
       </c>
@@ -10619,8 +11639,11 @@
       <c r="G343" s="2" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="344" spans="1:7">
+      <c r="H343" s="16" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="344" spans="1:8">
       <c r="A344" s="3">
         <v>21194432</v>
       </c>
@@ -10642,8 +11665,11 @@
       <c r="G344" s="2" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="345" spans="1:7">
+      <c r="H344" s="16" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="345" spans="1:8">
       <c r="A345" s="3">
         <v>21194433</v>
       </c>
@@ -10665,8 +11691,11 @@
       <c r="G345" s="2" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="346" spans="1:7">
+      <c r="H345" s="16" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="346" spans="1:8">
       <c r="A346" s="3">
         <v>21194435</v>
       </c>
@@ -10688,8 +11717,11 @@
       <c r="G346" s="2" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="347" spans="1:7">
+      <c r="H346" s="16" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="347" spans="1:8">
       <c r="A347" s="3">
         <v>21194436</v>
       </c>
@@ -10711,8 +11743,11 @@
       <c r="G347" s="2" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="348" spans="1:7">
+      <c r="H347" s="16" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="348" spans="1:8">
       <c r="A348" s="3">
         <v>21194609</v>
       </c>
@@ -10734,8 +11769,11 @@
       <c r="G348" s="2" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="349" spans="1:7">
+      <c r="H348" s="16" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="349" spans="1:8">
       <c r="A349" s="3">
         <v>21194619</v>
       </c>
@@ -10757,8 +11795,11 @@
       <c r="G349" s="2" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="350" spans="1:7">
+      <c r="H349" s="16" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="350" spans="1:8">
       <c r="A350" s="3">
         <v>21194621</v>
       </c>
@@ -10780,8 +11821,11 @@
       <c r="G350" s="2" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="351" spans="1:7">
+      <c r="H350" s="16" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="351" spans="1:8">
       <c r="A351" s="3">
         <v>21194624</v>
       </c>
@@ -10803,8 +11847,11 @@
       <c r="G351" s="2" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="352" spans="1:7">
+      <c r="H351" s="16" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="352" spans="1:8">
       <c r="A352" s="3">
         <v>21194627</v>
       </c>
@@ -10826,8 +11873,11 @@
       <c r="G352" s="2" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="353" spans="1:7">
+      <c r="H352" s="16" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="353" spans="1:8">
       <c r="A353" s="3">
         <v>21194628</v>
       </c>
@@ -10849,8 +11899,11 @@
       <c r="G353" s="2" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="354" spans="1:7">
+      <c r="H353" s="16" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="354" spans="1:8">
       <c r="A354" s="3">
         <v>21194629</v>
       </c>
@@ -10872,8 +11925,11 @@
       <c r="G354" s="2" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="355" spans="1:7">
+      <c r="H354" s="16" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="355" spans="1:8">
       <c r="A355" s="3">
         <v>21194633</v>
       </c>
@@ -10895,8 +11951,11 @@
       <c r="G355" s="2" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="356" spans="1:7">
+      <c r="H355" s="16" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="356" spans="1:8">
       <c r="A356" s="3">
         <v>21194635</v>
       </c>
@@ -10918,8 +11977,11 @@
       <c r="G356" s="2" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="357" spans="1:7">
+      <c r="H356" s="16" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="357" spans="1:8">
       <c r="A357" s="3">
         <v>21194636</v>
       </c>
@@ -10941,8 +12003,11 @@
       <c r="G357" s="2" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="358" spans="1:7">
+      <c r="H357" s="16" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="358" spans="1:8">
       <c r="A358" s="3">
         <v>21194709</v>
       </c>
@@ -10964,8 +12029,11 @@
       <c r="G358" s="2" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="359" spans="1:7">
+      <c r="H358" s="16" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="359" spans="1:8">
       <c r="A359" s="3">
         <v>21194719</v>
       </c>
@@ -10987,8 +12055,11 @@
       <c r="G359" s="2" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="360" spans="1:7">
+      <c r="H359" s="16" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="360" spans="1:8">
       <c r="A360" s="3">
         <v>21194721</v>
       </c>
@@ -11010,8 +12081,11 @@
       <c r="G360" s="2" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="361" spans="1:7">
+      <c r="H360" s="16" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="361" spans="1:8">
       <c r="A361" s="3">
         <v>21194724</v>
       </c>
@@ -11033,8 +12107,11 @@
       <c r="G361" s="2" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="362" spans="1:7">
+      <c r="H361" s="16" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="362" spans="1:8">
       <c r="A362" s="3">
         <v>21194727</v>
       </c>
@@ -11056,8 +12133,11 @@
       <c r="G362" s="2" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="363" spans="1:7">
+      <c r="H362" s="16" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="363" spans="1:8">
       <c r="A363" s="3">
         <v>21194728</v>
       </c>
@@ -11079,8 +12159,11 @@
       <c r="G363" s="2" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="364" spans="1:7">
+      <c r="H363" s="16" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="364" spans="1:8">
       <c r="A364" s="3">
         <v>21194729</v>
       </c>
@@ -11102,8 +12185,11 @@
       <c r="G364" s="2" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="365" spans="1:7">
+      <c r="H364" s="16" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="365" spans="1:8">
       <c r="A365" s="3">
         <v>21194733</v>
       </c>
@@ -11125,8 +12211,11 @@
       <c r="G365" s="2" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="366" spans="1:7">
+      <c r="H365" s="16" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="366" spans="1:8">
       <c r="A366" s="3">
         <v>21194735</v>
       </c>
@@ -11148,8 +12237,11 @@
       <c r="G366" s="2" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="367" spans="1:7">
+      <c r="H366" s="16" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="367" spans="1:8">
       <c r="A367" s="3">
         <v>21194736</v>
       </c>
@@ -11171,8 +12263,11 @@
       <c r="G367" s="2" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="368" spans="1:7">
+      <c r="H367" s="16" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="368" spans="1:8">
       <c r="A368" s="3">
         <v>21194809</v>
       </c>
@@ -11194,8 +12289,11 @@
       <c r="G368" s="2" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="369" spans="1:7">
+      <c r="H368" s="16" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="369" spans="1:8">
       <c r="A369" s="3">
         <v>21194819</v>
       </c>
@@ -11217,8 +12315,11 @@
       <c r="G369" s="2" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="370" spans="1:7">
+      <c r="H369" s="16" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="370" spans="1:8">
       <c r="A370" s="3">
         <v>21194821</v>
       </c>
@@ -11240,8 +12341,11 @@
       <c r="G370" s="2" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="371" spans="1:7">
+      <c r="H370" s="16" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="371" spans="1:8">
       <c r="A371" s="3">
         <v>21194824</v>
       </c>
@@ -11263,8 +12367,11 @@
       <c r="G371" s="2" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="372" spans="1:7">
+      <c r="H371" s="16" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="372" spans="1:8">
       <c r="A372" s="3">
         <v>21194827</v>
       </c>
@@ -11286,8 +12393,11 @@
       <c r="G372" s="2" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="373" spans="1:7">
+      <c r="H372" s="16" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="373" spans="1:8">
       <c r="A373" s="3">
         <v>21194828</v>
       </c>
@@ -11309,8 +12419,11 @@
       <c r="G373" s="2" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="374" spans="1:7">
+      <c r="H373" s="16" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="374" spans="1:8">
       <c r="A374" s="3">
         <v>21194829</v>
       </c>
@@ -11332,8 +12445,11 @@
       <c r="G374" s="2" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="375" spans="1:7">
+      <c r="H374" s="16" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="375" spans="1:8">
       <c r="A375" s="3">
         <v>21194830</v>
       </c>
@@ -11355,8 +12471,11 @@
       <c r="G375" s="2" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="376" spans="1:7">
+      <c r="H375" s="16" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="376" spans="1:8">
       <c r="A376" s="3">
         <v>21194832</v>
       </c>
@@ -11378,8 +12497,11 @@
       <c r="G376" s="2" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="377" spans="1:7">
+      <c r="H376" s="16" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="377" spans="1:8">
       <c r="A377" s="3">
         <v>21194833</v>
       </c>
@@ -11401,8 +12523,11 @@
       <c r="G377" s="2" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="378" spans="1:7">
+      <c r="H377" s="16" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="378" spans="1:8">
       <c r="A378" s="2">
         <v>21194834</v>
       </c>
@@ -11424,8 +12549,11 @@
       <c r="G378" s="2" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="379" spans="1:7">
+      <c r="H378" s="16" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="379" spans="1:8">
       <c r="A379" s="3">
         <v>21194835</v>
       </c>
@@ -11447,8 +12575,11 @@
       <c r="G379" s="2" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="380" spans="1:7">
+      <c r="H379" s="16" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="380" spans="1:8">
       <c r="A380" s="3">
         <v>21194836</v>
       </c>
@@ -11470,8 +12601,11 @@
       <c r="G380" s="2" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="381" spans="1:7">
+      <c r="H380" s="16" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="381" spans="1:8">
       <c r="A381" s="3">
         <v>21199120</v>
       </c>
@@ -11493,8 +12627,11 @@
       <c r="G381" s="2" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="382" spans="1:7">
+      <c r="H381" s="16" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="382" spans="1:8">
       <c r="A382" s="3">
         <v>21199150</v>
       </c>
@@ -11516,8 +12653,11 @@
       <c r="G382" s="2" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="383" spans="1:7">
+      <c r="H382" s="16" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="383" spans="1:8">
       <c r="A383" s="3">
         <v>21199160</v>
       </c>
@@ -11539,8 +12679,11 @@
       <c r="G383" s="2" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="384" spans="1:7">
+      <c r="H383" s="16" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="384" spans="1:8">
       <c r="A384" s="3">
         <v>21199180</v>
       </c>
@@ -11562,8 +12705,11 @@
       <c r="G384" s="2" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="385" spans="1:7">
+      <c r="H384" s="16" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="385" spans="1:8">
       <c r="A385" s="3">
         <v>21199390</v>
       </c>
@@ -11585,8 +12731,11 @@
       <c r="G385" s="2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="386" spans="1:7">
+      <c r="H385" s="16" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="386" spans="1:8">
       <c r="A386" s="3">
         <v>21199640</v>
       </c>
@@ -11608,8 +12757,11 @@
       <c r="G386" s="2" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="387" spans="1:7">
+      <c r="H386" s="16" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="387" spans="1:8">
       <c r="A387" s="3">
         <v>21200010</v>
       </c>
@@ -11631,8 +12783,11 @@
       <c r="G387" s="2" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="388" spans="1:7">
+      <c r="H387" s="16" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="388" spans="1:8">
       <c r="A388" s="3">
         <v>21200020</v>
       </c>
@@ -11654,8 +12809,11 @@
       <c r="G388" s="2" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="389" spans="1:7">
+      <c r="H388" s="16" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="389" spans="1:8">
       <c r="A389" s="2">
         <v>21200030</v>
       </c>
@@ -11677,8 +12835,11 @@
       <c r="G389" s="2" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="390" spans="1:7">
+      <c r="H389" s="16" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="390" spans="1:8">
       <c r="A390" s="3">
         <v>21200100</v>
       </c>
@@ -11700,8 +12861,11 @@
       <c r="G390" s="2" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="391" spans="1:7">
+      <c r="H390" s="16" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="391" spans="1:8">
       <c r="A391" s="3">
         <v>21200110</v>
       </c>
@@ -11723,8 +12887,11 @@
       <c r="G391" s="2" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="392" spans="1:7">
+      <c r="H391" s="16" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="392" spans="1:8">
       <c r="A392" s="3">
         <v>21200200</v>
       </c>
@@ -11746,8 +12913,11 @@
       <c r="G392" s="2" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="393" spans="1:7">
+      <c r="H392" s="16" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="393" spans="1:8">
       <c r="A393" s="8">
         <v>21200210</v>
       </c>
@@ -11769,8 +12939,11 @@
       <c r="G393" s="2" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="394" spans="1:7">
+      <c r="H393" s="16" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="394" spans="1:8">
       <c r="A394" s="3">
         <v>21200410</v>
       </c>
@@ -11792,8 +12965,11 @@
       <c r="G394" s="2" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="395" spans="1:7">
+      <c r="H394" s="16" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="395" spans="1:8">
       <c r="A395" s="3">
         <v>21210100</v>
       </c>
@@ -11815,8 +12991,11 @@
       <c r="G395" s="2" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="396" spans="1:7">
+      <c r="H395" s="16" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="396" spans="1:8">
       <c r="A396" s="3">
         <v>21210200</v>
       </c>
@@ -11838,8 +13017,11 @@
       <c r="G396" s="2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="397" spans="1:7">
+      <c r="H396" s="16" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="397" spans="1:8">
       <c r="A397" s="3">
         <v>21210400</v>
       </c>
@@ -11861,8 +13043,11 @@
       <c r="G397" s="2" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="398" spans="1:7">
+      <c r="H397" s="16" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="398" spans="1:8">
       <c r="A398" s="3">
         <v>21230200</v>
       </c>
@@ -11884,8 +13069,11 @@
       <c r="G398" s="2" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="399" spans="1:7">
+      <c r="H398" s="16" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="399" spans="1:8">
       <c r="A399" s="3">
         <v>21240120</v>
       </c>
@@ -11907,8 +13095,11 @@
       <c r="G399" s="2" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="400" spans="1:7">
+      <c r="H399" s="16" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="400" spans="1:8">
       <c r="A400" s="3">
         <v>21240130</v>
       </c>
@@ -11930,8 +13121,11 @@
       <c r="G400" s="2" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="401" spans="1:7">
+      <c r="H400" s="16" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="401" spans="1:8">
       <c r="A401" s="3">
         <v>21240140</v>
       </c>
@@ -11953,8 +13147,11 @@
       <c r="G401" s="2" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="402" spans="1:7">
+      <c r="H401" s="16" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="402" spans="1:8">
       <c r="A402" s="3">
         <v>21240150</v>
       </c>
@@ -11976,8 +13173,11 @@
       <c r="G402" s="2" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="403" spans="1:7">
+      <c r="H402" s="16" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="403" spans="1:8">
       <c r="A403" s="3">
         <v>21240160</v>
       </c>
@@ -11999,8 +13199,11 @@
       <c r="G403" s="2" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="404" spans="1:7">
+      <c r="H403" s="16" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="404" spans="1:8">
       <c r="A404" s="3">
         <v>21240180</v>
       </c>
@@ -12022,8 +13225,11 @@
       <c r="G404" s="2" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="405" spans="1:7">
+      <c r="H404" s="16" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="405" spans="1:8">
       <c r="A405" s="3">
         <v>21240190</v>
       </c>
@@ -12045,8 +13251,11 @@
       <c r="G405" s="2" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="406" spans="1:7">
+      <c r="H405" s="16" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="406" spans="1:8">
       <c r="A406" s="3">
         <v>21240210</v>
       </c>
@@ -12068,8 +13277,11 @@
       <c r="G406" s="2" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="407" spans="1:7">
+      <c r="H406" s="16" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="407" spans="1:8">
       <c r="A407" s="3">
         <v>21240220</v>
       </c>
@@ -12091,8 +13303,11 @@
       <c r="G407" s="2" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="408" spans="1:7">
+      <c r="H407" s="16" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="408" spans="1:8">
       <c r="A408" s="3">
         <v>21240230</v>
       </c>
@@ -12114,8 +13329,11 @@
       <c r="G408" s="2" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="409" spans="1:7">
+      <c r="H408" s="16" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="409" spans="1:8">
       <c r="A409" s="3">
         <v>21240240</v>
       </c>
@@ -12137,8 +13355,11 @@
       <c r="G409" s="2" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="410" spans="1:7">
+      <c r="H409" s="16" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="410" spans="1:8">
       <c r="A410" s="3">
         <v>21240250</v>
       </c>
@@ -12160,8 +13381,11 @@
       <c r="G410" s="2" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="411" spans="1:7">
+      <c r="H410" s="16" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="411" spans="1:8">
       <c r="A411" s="3">
         <v>21240260</v>
       </c>
@@ -12183,8 +13407,11 @@
       <c r="G411" s="2" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="412" spans="1:7">
+      <c r="H411" s="16" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="412" spans="1:8">
       <c r="A412" s="3">
         <v>21240270</v>
       </c>
@@ -12206,8 +13433,11 @@
       <c r="G412" s="2" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="413" spans="1:7">
+      <c r="H412" s="16" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="413" spans="1:8">
       <c r="A413" s="3">
         <v>21240280</v>
       </c>
@@ -12229,8 +13459,11 @@
       <c r="G413" s="2" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="414" spans="1:7">
+      <c r="H413" s="16" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="414" spans="1:8">
       <c r="A414" s="3">
         <v>21240410</v>
       </c>
@@ -12252,8 +13485,11 @@
       <c r="G414" s="2" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="415" spans="1:7">
+      <c r="H414" s="16" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="415" spans="1:8">
       <c r="A415" s="3">
         <v>21299100</v>
       </c>
@@ -12275,8 +13511,11 @@
       <c r="G415" s="2" t="s">
         <v>508</v>
       </c>
-    </row>
-    <row r="416" spans="1:7">
+      <c r="H415" s="16" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="416" spans="1:8">
       <c r="A416" s="3">
         <v>21299200</v>
       </c>
@@ -12298,8 +13537,11 @@
       <c r="G416" s="2" t="s">
         <v>508</v>
       </c>
-    </row>
-    <row r="417" spans="1:7">
+      <c r="H416" s="16" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="417" spans="1:8">
       <c r="A417" s="3">
         <v>21299300</v>
       </c>
@@ -12321,8 +13563,11 @@
       <c r="G417" s="2" t="s">
         <v>508</v>
       </c>
-    </row>
-    <row r="418" spans="1:7">
+      <c r="H417" s="16" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="418" spans="1:8">
       <c r="A418" s="3">
         <v>21299400</v>
       </c>
@@ -12344,8 +13589,11 @@
       <c r="G418" s="2" t="s">
         <v>508</v>
       </c>
-    </row>
-    <row r="419" spans="1:7">
+      <c r="H418" s="16" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="419" spans="1:8">
       <c r="A419" s="3">
         <v>21299500</v>
       </c>
@@ -12367,8 +13615,11 @@
       <c r="G419" s="2" t="s">
         <v>508</v>
       </c>
-    </row>
-    <row r="420" spans="1:7">
+      <c r="H419" s="16" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="420" spans="1:8">
       <c r="A420" s="3">
         <v>21299550</v>
       </c>
@@ -12390,8 +13641,11 @@
       <c r="G420" s="2" t="s">
         <v>508</v>
       </c>
-    </row>
-    <row r="421" spans="1:7">
+      <c r="H420" s="16" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="421" spans="1:8">
       <c r="A421" s="3">
         <v>22102000</v>
       </c>
@@ -12413,8 +13667,11 @@
       <c r="G421" s="2" t="s">
         <v>517</v>
       </c>
-    </row>
-    <row r="422" spans="1:7">
+      <c r="H421" s="16" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="422" spans="1:8">
       <c r="A422" s="3">
         <v>22400100</v>
       </c>
@@ -12436,8 +13693,11 @@
       <c r="G422" s="2" t="s">
         <v>520</v>
       </c>
-    </row>
-    <row r="423" spans="1:7">
+      <c r="H422" s="16" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="423" spans="1:8">
       <c r="A423" s="3">
         <v>31100100</v>
       </c>
@@ -12459,8 +13719,11 @@
       <c r="G423" s="2" t="s">
         <v>523</v>
       </c>
-    </row>
-    <row r="424" spans="1:7">
+      <c r="H423" s="16" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="424" spans="1:8">
       <c r="A424" s="3">
         <v>34100100</v>
       </c>
@@ -12482,8 +13745,11 @@
       <c r="G424" s="2" t="s">
         <v>525</v>
       </c>
-    </row>
-    <row r="425" spans="1:7">
+      <c r="H424" s="16" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="425" spans="1:8">
       <c r="A425" s="3">
         <v>34100160</v>
       </c>
@@ -12505,8 +13771,11 @@
       <c r="G425" s="2" t="s">
         <v>525</v>
       </c>
-    </row>
-    <row r="426" spans="1:7">
+      <c r="H425" s="16" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="426" spans="1:8">
       <c r="A426" s="3">
         <v>34100200</v>
       </c>
@@ -12528,8 +13797,11 @@
       <c r="G426" s="2" t="s">
         <v>525</v>
       </c>
-    </row>
-    <row r="427" spans="1:7">
+      <c r="H426" s="16" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="427" spans="1:8">
       <c r="A427" s="3">
         <v>34100500</v>
       </c>
@@ -12551,8 +13823,11 @@
       <c r="G427" s="2" t="s">
         <v>525</v>
       </c>
-    </row>
-    <row r="428" spans="1:7">
+      <c r="H427" s="16" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="428" spans="1:8">
       <c r="A428" s="3">
         <v>34100800</v>
       </c>
@@ -12574,8 +13849,11 @@
       <c r="G428" s="2" t="s">
         <v>525</v>
       </c>
-    </row>
-    <row r="429" spans="1:7">
+      <c r="H428" s="16" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="429" spans="1:8">
       <c r="A429" s="3">
         <v>34100900</v>
       </c>
@@ -12597,8 +13875,11 @@
       <c r="G429" s="2" t="s">
         <v>525</v>
       </c>
-    </row>
-    <row r="430" spans="1:7">
+      <c r="H429" s="16" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="430" spans="1:8">
       <c r="A430" s="3">
         <v>34103030</v>
       </c>
@@ -12620,8 +13901,11 @@
       <c r="G430" s="2" t="s">
         <v>525</v>
       </c>
-    </row>
-    <row r="431" spans="1:7">
+      <c r="H430" s="16" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="431" spans="1:8">
       <c r="A431" s="3">
         <v>41001400</v>
       </c>
@@ -12643,8 +13927,11 @@
       <c r="G431" s="2" t="s">
         <v>536</v>
       </c>
-    </row>
-    <row r="432" spans="1:7">
+      <c r="H431" s="16" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="432" spans="1:8">
       <c r="A432" s="3">
         <v>41011570</v>
       </c>
@@ -12666,8 +13953,11 @@
       <c r="G432" s="2" t="s">
         <v>536</v>
       </c>
-    </row>
-    <row r="433" spans="1:7">
+      <c r="H432" s="16" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="433" spans="1:8">
       <c r="A433" s="3">
         <v>41016000</v>
       </c>
@@ -12689,8 +13979,11 @@
       <c r="G433" s="2" t="s">
         <v>536</v>
       </c>
-    </row>
-    <row r="434" spans="1:7">
+      <c r="H433" s="16" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="434" spans="1:8">
       <c r="A434" s="3">
         <v>41099040</v>
       </c>
@@ -12712,8 +14005,11 @@
       <c r="G434" s="2" t="s">
         <v>536</v>
       </c>
-    </row>
-    <row r="435" spans="1:7">
+      <c r="H434" s="16" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="435" spans="1:8">
       <c r="A435" s="3">
         <v>41099250</v>
       </c>
@@ -12735,8 +14031,11 @@
       <c r="G435" s="2" t="s">
         <v>546</v>
       </c>
-    </row>
-    <row r="436" spans="1:7">
+      <c r="H435" s="16" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="436" spans="1:8">
       <c r="A436" s="3">
         <v>41099810</v>
       </c>
@@ -12758,8 +14057,11 @@
       <c r="G436" s="2" t="s">
         <v>536</v>
       </c>
-    </row>
-    <row r="437" spans="1:7">
+      <c r="H436" s="16" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="437" spans="1:8">
       <c r="A437" s="3">
         <v>42000560</v>
       </c>
@@ -12781,8 +14083,11 @@
       <c r="G437" s="2" t="s">
         <v>550</v>
       </c>
-    </row>
-    <row r="438" spans="1:7">
+      <c r="H437" s="16" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="438" spans="1:8">
       <c r="A438" s="3">
         <v>42000810</v>
       </c>
@@ -12804,8 +14109,11 @@
       <c r="G438" s="2" t="s">
         <v>536</v>
       </c>
-    </row>
-    <row r="439" spans="1:7">
+      <c r="H438" s="16" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="439" spans="1:8">
       <c r="A439" s="3">
         <v>42001050</v>
       </c>
@@ -12827,8 +14135,11 @@
       <c r="G439" s="2" t="s">
         <v>550</v>
       </c>
-    </row>
-    <row r="440" spans="1:7">
+      <c r="H439" s="16" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="440" spans="1:8">
       <c r="A440" s="8">
         <v>42001200</v>
       </c>
@@ -12850,8 +14161,11 @@
       <c r="G440" s="2" t="s">
         <v>536</v>
       </c>
-    </row>
-    <row r="441" spans="1:7">
+      <c r="H440" s="16" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="441" spans="1:8">
       <c r="A441" s="3">
         <v>42001400</v>
       </c>
@@ -12873,8 +14187,11 @@
       <c r="G441" s="2" t="s">
         <v>550</v>
       </c>
-    </row>
-    <row r="442" spans="1:7">
+      <c r="H441" s="16" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="442" spans="1:8">
       <c r="A442" s="3">
         <v>42001700</v>
       </c>
@@ -12896,8 +14213,11 @@
       <c r="G442" s="2" t="s">
         <v>550</v>
       </c>
-    </row>
-    <row r="443" spans="1:7">
+      <c r="H442" s="16" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="443" spans="1:8">
       <c r="A443" s="3">
         <v>42001900</v>
       </c>
@@ -12919,8 +14239,11 @@
       <c r="G443" s="2" t="s">
         <v>550</v>
       </c>
-    </row>
-    <row r="444" spans="1:7">
+      <c r="H443" s="16" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="444" spans="1:8">
       <c r="A444" s="3">
         <v>42002710</v>
       </c>
@@ -12942,8 +14265,11 @@
       <c r="G444" s="2" t="s">
         <v>550</v>
       </c>
-    </row>
-    <row r="445" spans="1:7">
+      <c r="H444" s="16" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="445" spans="1:8">
       <c r="A445" s="3">
         <v>42061500</v>
       </c>
@@ -12965,8 +14291,11 @@
       <c r="G445" s="2" t="s">
         <v>550</v>
       </c>
-    </row>
-    <row r="446" spans="1:7">
+      <c r="H445" s="16" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="446" spans="1:8">
       <c r="A446" s="3">
         <v>42061510</v>
       </c>
@@ -12988,8 +14317,11 @@
       <c r="G446" s="2" t="s">
         <v>550</v>
       </c>
-    </row>
-    <row r="447" spans="1:7">
+      <c r="H446" s="16" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="447" spans="1:8">
       <c r="A447" s="3">
         <v>51000200</v>
       </c>
@@ -13011,8 +14343,11 @@
       <c r="G447" s="2" t="s">
         <v>567</v>
       </c>
-    </row>
-    <row r="448" spans="1:7">
+      <c r="H447" s="16" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="448" spans="1:8">
       <c r="A448" s="3">
         <v>51000600</v>
       </c>
@@ -13034,8 +14369,11 @@
       <c r="G448" s="2" t="s">
         <v>567</v>
       </c>
-    </row>
-    <row r="449" spans="1:7">
+      <c r="H448" s="16" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="449" spans="1:8">
       <c r="A449" s="3">
         <v>51000700</v>
       </c>
@@ -13057,8 +14395,11 @@
       <c r="G449" s="2" t="s">
         <v>567</v>
       </c>
-    </row>
-    <row r="450" spans="1:7">
+      <c r="H449" s="16" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="450" spans="1:8">
       <c r="A450" s="3">
         <v>51000800</v>
       </c>
@@ -13080,8 +14421,11 @@
       <c r="G450" s="2" t="s">
         <v>567</v>
       </c>
-    </row>
-    <row r="451" spans="1:7">
+      <c r="H450" s="16" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="451" spans="1:8">
       <c r="A451" s="3">
         <v>51000900</v>
       </c>
@@ -13103,8 +14447,11 @@
       <c r="G451" s="2" t="s">
         <v>567</v>
       </c>
-    </row>
-    <row r="452" spans="1:7">
+      <c r="H451" s="16" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="452" spans="1:8">
       <c r="A452" s="3">
         <v>51001000</v>
       </c>
@@ -13126,8 +14473,11 @@
       <c r="G452" s="2" t="s">
         <v>567</v>
       </c>
-    </row>
-    <row r="453" spans="1:7">
+      <c r="H452" s="16" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="453" spans="1:8">
       <c r="A453" s="3">
         <v>51003200</v>
       </c>
@@ -13149,8 +14499,11 @@
       <c r="G453" s="2" t="s">
         <v>567</v>
       </c>
-    </row>
-    <row r="454" spans="1:7">
+      <c r="H453" s="16" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="454" spans="1:8">
       <c r="A454" s="3">
         <v>51003800</v>
       </c>
@@ -13172,8 +14525,11 @@
       <c r="G454" s="2" t="s">
         <v>567</v>
       </c>
-    </row>
-    <row r="455" spans="1:7">
+      <c r="H454" s="16" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="455" spans="1:8">
       <c r="A455" s="3">
         <v>51003900</v>
       </c>
@@ -13195,8 +14551,11 @@
       <c r="G455" s="2" t="s">
         <v>546</v>
       </c>
-    </row>
-    <row r="456" spans="1:7">
+      <c r="H455" s="16" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="456" spans="1:8">
       <c r="A456" s="3">
         <v>51010600</v>
       </c>
@@ -13218,8 +14577,11 @@
       <c r="G456" s="2" t="s">
         <v>567</v>
       </c>
-    </row>
-    <row r="457" spans="1:7">
+      <c r="H456" s="16" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="457" spans="1:8">
       <c r="A457" s="3">
         <v>51020410</v>
       </c>
@@ -13241,8 +14603,11 @@
       <c r="G457" s="2" t="s">
         <v>567</v>
       </c>
-    </row>
-    <row r="458" spans="1:7">
+      <c r="H457" s="16" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="458" spans="1:8">
       <c r="A458" s="3">
         <v>52000200</v>
       </c>
@@ -13264,8 +14629,11 @@
       <c r="G458" s="2" t="s">
         <v>584</v>
       </c>
-    </row>
-    <row r="459" spans="1:7">
+      <c r="H458" s="16" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="459" spans="1:8">
       <c r="A459" s="3">
         <v>52000400</v>
       </c>
@@ -13287,8 +14655,11 @@
       <c r="G459" s="2" t="s">
         <v>584</v>
       </c>
-    </row>
-    <row r="460" spans="1:7">
+      <c r="H459" s="16" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="460" spans="1:8">
       <c r="A460" s="3">
         <v>52000500</v>
       </c>
@@ -13310,8 +14681,11 @@
       <c r="G460" s="2" t="s">
         <v>584</v>
       </c>
-    </row>
-    <row r="461" spans="1:7">
+      <c r="H460" s="16" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="461" spans="1:8">
       <c r="A461" s="2">
         <v>52000600</v>
       </c>
@@ -13333,8 +14707,11 @@
       <c r="G461" s="2" t="s">
         <v>584</v>
       </c>
-    </row>
-    <row r="462" spans="1:7">
+      <c r="H461" s="16" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="462" spans="1:8">
       <c r="A462" s="3">
         <v>52001400</v>
       </c>
@@ -13356,8 +14733,11 @@
       <c r="G462" s="2" t="s">
         <v>584</v>
       </c>
-    </row>
-    <row r="463" spans="1:7">
+      <c r="H462" s="16" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="463" spans="1:8">
       <c r="A463" s="3">
         <v>52001500</v>
       </c>
@@ -13379,8 +14759,11 @@
       <c r="G463" s="2" t="s">
         <v>584</v>
       </c>
-    </row>
-    <row r="464" spans="1:7">
+      <c r="H463" s="16" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="464" spans="1:8">
       <c r="A464" s="3">
         <v>52001700</v>
       </c>
@@ -13402,8 +14785,11 @@
       <c r="G464" s="2" t="s">
         <v>584</v>
       </c>
-    </row>
-    <row r="465" spans="1:7">
+      <c r="H464" s="16" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="465" spans="1:8">
       <c r="A465" s="3">
         <v>52001710</v>
       </c>
@@ -13425,8 +14811,11 @@
       <c r="G465" s="2" t="s">
         <v>584</v>
       </c>
-    </row>
-    <row r="466" spans="1:7">
+      <c r="H465" s="16" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="466" spans="1:8">
       <c r="A466" s="3">
         <v>52002000</v>
       </c>
@@ -13448,8 +14837,11 @@
       <c r="G466" s="2" t="s">
         <v>584</v>
       </c>
-    </row>
-    <row r="467" spans="1:7">
+      <c r="H466" s="16" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="467" spans="1:8">
       <c r="A467" s="3">
         <v>52002600</v>
       </c>
@@ -13471,8 +14863,11 @@
       <c r="G467" s="2" t="s">
         <v>584</v>
       </c>
-    </row>
-    <row r="468" spans="1:7">
+      <c r="H467" s="16" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="468" spans="1:8">
       <c r="A468" s="3">
         <v>52002700</v>
       </c>
@@ -13494,8 +14889,11 @@
       <c r="G468" s="2" t="s">
         <v>584</v>
       </c>
-    </row>
-    <row r="469" spans="1:7">
+      <c r="H468" s="16" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="469" spans="1:8">
       <c r="A469" s="3">
         <v>52002800</v>
       </c>
@@ -13517,8 +14915,11 @@
       <c r="G469" s="2" t="s">
         <v>584</v>
       </c>
-    </row>
-    <row r="470" spans="1:7">
+      <c r="H469" s="16" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="470" spans="1:8">
       <c r="A470" s="3">
         <v>52003500</v>
       </c>
@@ -13540,8 +14941,11 @@
       <c r="G470" s="2" t="s">
         <v>546</v>
       </c>
-    </row>
-    <row r="471" spans="1:7">
+      <c r="H470" s="16" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="471" spans="1:8">
       <c r="A471" s="3">
         <v>52004000</v>
       </c>
@@ -13563,8 +14967,11 @@
       <c r="G471" s="2" t="s">
         <v>546</v>
       </c>
-    </row>
-    <row r="472" spans="1:7">
+      <c r="H471" s="16" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="472" spans="1:8">
       <c r="A472" s="3">
         <v>52009970</v>
       </c>
@@ -13586,8 +14993,11 @@
       <c r="G472" s="2" t="s">
         <v>584</v>
       </c>
-    </row>
-    <row r="473" spans="1:7">
+      <c r="H472" s="16" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="473" spans="1:8">
       <c r="A473" s="3">
         <v>52009980</v>
       </c>
@@ -13609,8 +15019,11 @@
       <c r="G473" s="2" t="s">
         <v>584</v>
       </c>
-    </row>
-    <row r="474" spans="1:7">
+      <c r="H473" s="16" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="474" spans="1:8">
       <c r="A474" s="3">
         <v>52009990</v>
       </c>
@@ -13632,8 +15045,11 @@
       <c r="G474" s="2" t="s">
         <v>584</v>
       </c>
-    </row>
-    <row r="475" spans="1:7">
+      <c r="H474" s="16" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="475" spans="1:8">
       <c r="A475" s="3">
         <v>52010010</v>
       </c>
@@ -13655,8 +15071,11 @@
       <c r="G475" s="2" t="s">
         <v>584</v>
       </c>
-    </row>
-    <row r="476" spans="1:7">
+      <c r="H475" s="16" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="476" spans="1:8">
       <c r="A476" s="3">
         <v>52010020</v>
       </c>
@@ -13678,8 +15097,11 @@
       <c r="G476" s="2" t="s">
         <v>584</v>
       </c>
-    </row>
-    <row r="477" spans="1:7">
+      <c r="H476" s="16" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="477" spans="1:8">
       <c r="A477" s="3">
         <v>53001160</v>
       </c>
@@ -13701,8 +15123,11 @@
       <c r="G477" s="2" t="s">
         <v>567</v>
       </c>
-    </row>
-    <row r="478" spans="1:7">
+      <c r="H477" s="16" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="478" spans="1:8">
       <c r="A478" s="3">
         <v>53001550</v>
       </c>
@@ -13724,8 +15149,11 @@
       <c r="G478" s="2" t="s">
         <v>567</v>
       </c>
-    </row>
-    <row r="479" spans="1:7">
+      <c r="H478" s="16" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="479" spans="1:8">
       <c r="A479" s="3">
         <v>53005200</v>
       </c>
@@ -13747,8 +15175,11 @@
       <c r="G479" s="2" t="s">
         <v>567</v>
       </c>
-    </row>
-    <row r="480" spans="1:7">
+      <c r="H479" s="16" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="480" spans="1:8">
       <c r="A480" s="3">
         <v>53006000</v>
       </c>
@@ -13770,8 +15201,11 @@
       <c r="G480" s="2" t="s">
         <v>567</v>
       </c>
-    </row>
-    <row r="481" spans="1:7">
+      <c r="H480" s="16" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="481" spans="1:8">
       <c r="A481" s="3">
         <v>53006200</v>
       </c>
@@ -13793,8 +15227,11 @@
       <c r="G481" s="2" t="s">
         <v>567</v>
       </c>
-    </row>
-    <row r="482" spans="1:7">
+      <c r="H481" s="16" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="482" spans="1:8">
       <c r="A482" s="3">
         <v>53007000</v>
       </c>
@@ -13816,8 +15253,11 @@
       <c r="G482" s="2" t="s">
         <v>546</v>
       </c>
-    </row>
-    <row r="483" spans="1:7">
+      <c r="H482" s="16" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="483" spans="1:8">
       <c r="A483" s="3">
         <v>53010000</v>
       </c>
@@ -13839,8 +15279,11 @@
       <c r="G483" s="2" t="s">
         <v>546</v>
       </c>
-    </row>
-    <row r="484" spans="1:7">
+      <c r="H483" s="16" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="484" spans="1:8">
       <c r="A484" s="3">
         <v>53010350</v>
       </c>
@@ -13862,8 +15305,11 @@
       <c r="G484" s="2" t="s">
         <v>567</v>
       </c>
-    </row>
-    <row r="485" spans="1:7">
+      <c r="H484" s="16" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="485" spans="1:8">
       <c r="A485" s="3">
         <v>53010900</v>
       </c>
@@ -13885,8 +15331,11 @@
       <c r="G485" s="2" t="s">
         <v>546</v>
       </c>
-    </row>
-    <row r="486" spans="1:7">
+      <c r="H485" s="16" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="486" spans="1:8">
       <c r="A486" s="8">
         <v>53014000</v>
       </c>
@@ -13908,8 +15357,11 @@
       <c r="G486" s="2" t="s">
         <v>546</v>
       </c>
-    </row>
-    <row r="487" spans="1:7">
+      <c r="H486" s="16" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="487" spans="1:8">
       <c r="A487" s="3">
         <v>53014300</v>
       </c>
@@ -13931,8 +15383,11 @@
       <c r="G487" s="2" t="s">
         <v>546</v>
       </c>
-    </row>
-    <row r="488" spans="1:7">
+      <c r="H487" s="16" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="488" spans="1:8">
       <c r="A488" s="3">
         <v>53015800</v>
       </c>
@@ -13954,8 +15409,11 @@
       <c r="G488" s="2" t="s">
         <v>567</v>
       </c>
-    </row>
-    <row r="489" spans="1:7">
+      <c r="H488" s="16" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="489" spans="1:8">
       <c r="A489" s="3">
         <v>53016200</v>
       </c>
@@ -13977,8 +15435,11 @@
       <c r="G489" s="2" t="s">
         <v>567</v>
       </c>
-    </row>
-    <row r="490" spans="1:7">
+      <c r="H489" s="16" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="490" spans="1:8">
       <c r="A490" s="3">
         <v>53016300</v>
       </c>
@@ -14000,8 +15461,11 @@
       <c r="G490" s="2" t="s">
         <v>567</v>
       </c>
-    </row>
-    <row r="491" spans="1:7">
+      <c r="H490" s="16" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="491" spans="1:8">
       <c r="A491" s="8">
         <v>53063030</v>
       </c>
@@ -14023,8 +15487,11 @@
       <c r="G491" s="2" t="s">
         <v>633</v>
       </c>
-    </row>
-    <row r="492" spans="1:7">
+      <c r="H491" s="16" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="492" spans="1:8">
       <c r="A492" s="8">
         <v>53063050</v>
       </c>
@@ -14046,8 +15513,11 @@
       <c r="G492" s="2" t="s">
         <v>633</v>
       </c>
-    </row>
-    <row r="493" spans="1:7">
+      <c r="H492" s="16" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="493" spans="1:8">
       <c r="A493" s="3">
         <v>54001000</v>
       </c>
@@ -14069,8 +15539,11 @@
       <c r="G493" s="2" t="s">
         <v>637</v>
       </c>
-    </row>
-    <row r="494" spans="1:7">
+      <c r="H493" s="16" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="494" spans="1:8">
       <c r="A494" s="3">
         <v>54001010</v>
       </c>
@@ -14092,8 +15565,11 @@
       <c r="G494" s="2" t="s">
         <v>546</v>
       </c>
-    </row>
-    <row r="495" spans="1:7">
+      <c r="H494" s="16" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="495" spans="1:8">
       <c r="A495" s="3">
         <v>54001020</v>
       </c>
@@ -14115,8 +15591,11 @@
       <c r="G495" s="2" t="s">
         <v>637</v>
       </c>
-    </row>
-    <row r="496" spans="1:7">
+      <c r="H495" s="16" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="496" spans="1:8">
       <c r="A496" s="3">
         <v>54001100</v>
       </c>
@@ -14138,8 +15617,11 @@
       <c r="G496" s="2" t="s">
         <v>637</v>
       </c>
-    </row>
-    <row r="497" spans="1:7">
+      <c r="H496" s="16" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="497" spans="1:8">
       <c r="A497" s="8">
         <v>55000300</v>
       </c>
@@ -14161,8 +15643,11 @@
       <c r="G497" s="2" t="s">
         <v>546</v>
       </c>
-    </row>
-    <row r="498" spans="1:7">
+      <c r="H497" s="16" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="498" spans="1:8">
       <c r="A498" s="3">
         <v>55000400</v>
       </c>
@@ -14184,8 +15669,11 @@
       <c r="G498" s="2" t="s">
         <v>546</v>
       </c>
-    </row>
-    <row r="499" spans="1:7">
+      <c r="H498" s="16" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="499" spans="1:8">
       <c r="A499" s="3">
         <v>55000550</v>
       </c>
@@ -14207,8 +15695,11 @@
       <c r="G499" s="2" t="s">
         <v>546</v>
       </c>
-    </row>
-    <row r="500" spans="1:7">
+      <c r="H499" s="16" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="500" spans="1:8">
       <c r="A500" s="3">
         <v>55000620</v>
       </c>
@@ -14230,8 +15721,11 @@
       <c r="G500" s="2" t="s">
         <v>546</v>
       </c>
-    </row>
-    <row r="501" spans="1:7">
+      <c r="H500" s="16" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="501" spans="1:8">
       <c r="A501" s="3">
         <v>55000700</v>
       </c>
@@ -14253,8 +15747,11 @@
       <c r="G501" s="2" t="s">
         <v>546</v>
       </c>
-    </row>
-    <row r="502" spans="1:7">
+      <c r="H501" s="16" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="502" spans="1:8">
       <c r="A502" s="8">
         <v>55001000</v>
       </c>
@@ -14276,8 +15773,11 @@
       <c r="G502" s="2" t="s">
         <v>546</v>
       </c>
-    </row>
-    <row r="503" spans="1:7">
+      <c r="H502" s="16" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="503" spans="1:8">
       <c r="A503" s="3">
         <v>55001100</v>
       </c>
@@ -14299,8 +15799,11 @@
       <c r="G503" s="2" t="s">
         <v>546</v>
       </c>
-    </row>
-    <row r="504" spans="1:7">
+      <c r="H503" s="16" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="504" spans="1:8">
       <c r="A504" s="3">
         <v>55001300</v>
       </c>
@@ -14322,8 +15825,11 @@
       <c r="G504" s="2" t="s">
         <v>546</v>
       </c>
-    </row>
-    <row r="505" spans="1:7">
+      <c r="H504" s="16" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="505" spans="1:8">
       <c r="A505" s="3">
         <v>55001600</v>
       </c>
@@ -14345,8 +15851,11 @@
       <c r="G505" s="2" t="s">
         <v>546</v>
       </c>
-    </row>
-    <row r="506" spans="1:7">
+      <c r="H505" s="16" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="506" spans="1:8">
       <c r="A506" s="3">
         <v>55001900</v>
       </c>
@@ -14368,8 +15877,11 @@
       <c r="G506" s="2" t="s">
         <v>546</v>
       </c>
-    </row>
-    <row r="507" spans="1:7">
+      <c r="H506" s="16" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="507" spans="1:8">
       <c r="A507" s="3">
         <v>55002600</v>
       </c>
@@ -14391,8 +15903,11 @@
       <c r="G507" s="2" t="s">
         <v>546</v>
       </c>
-    </row>
-    <row r="508" spans="1:7">
+      <c r="H507" s="16" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="508" spans="1:8">
       <c r="A508" s="3">
         <v>55003000</v>
       </c>
@@ -14414,8 +15929,11 @@
       <c r="G508" s="2" t="s">
         <v>546</v>
       </c>
-    </row>
-    <row r="509" spans="1:7">
+      <c r="H508" s="16" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="509" spans="1:8">
       <c r="A509" s="3">
         <v>55003200</v>
       </c>
@@ -14437,8 +15955,11 @@
       <c r="G509" s="2" t="s">
         <v>584</v>
       </c>
-    </row>
-    <row r="510" spans="1:7">
+      <c r="H509" s="16" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="510" spans="1:8">
       <c r="A510" s="3">
         <v>55003950</v>
       </c>
@@ -14460,8 +15981,11 @@
       <c r="G510" s="2" t="s">
         <v>546</v>
       </c>
-    </row>
-    <row r="511" spans="1:7">
+      <c r="H510" s="16" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="511" spans="1:8">
       <c r="A511" s="3">
         <v>55004100</v>
       </c>
@@ -14483,8 +16007,11 @@
       <c r="G511" s="2" t="s">
         <v>546</v>
       </c>
-    </row>
-    <row r="512" spans="1:7">
+      <c r="H511" s="16" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="512" spans="1:8">
       <c r="A512" s="3">
         <v>55004200</v>
       </c>
@@ -14505,6 +16032,9 @@
       </c>
       <c r="G512" s="2" t="s">
         <v>546</v>
+      </c>
+      <c r="H512" s="16" t="s">
+        <v>723</v>
       </c>
     </row>
     <row r="513" spans="1:8">
@@ -14529,6 +16059,9 @@
       <c r="G513" s="2" t="s">
         <v>546</v>
       </c>
+      <c r="H513" s="16" t="s">
+        <v>726</v>
+      </c>
     </row>
     <row r="514" spans="1:8">
       <c r="A514" s="3">
@@ -14552,6 +16085,9 @@
       <c r="G514" s="2" t="s">
         <v>546</v>
       </c>
+      <c r="H514" s="16" t="s">
+        <v>726</v>
+      </c>
     </row>
     <row r="515" spans="1:8">
       <c r="A515" s="3">
@@ -14575,9 +16111,8 @@
       <c r="G515" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="H515" s="6" t="e">
-        <f>#REF!*2</f>
-        <v>#REF!</v>
+      <c r="H515" s="16" t="s">
+        <v>726</v>
       </c>
     </row>
     <row r="516" spans="1:8">
@@ -14602,6 +16137,9 @@
       <c r="G516" s="2" t="s">
         <v>546</v>
       </c>
+      <c r="H516" s="16" t="s">
+        <v>726</v>
+      </c>
     </row>
     <row r="517" spans="1:8">
       <c r="A517" s="3">
@@ -14625,6 +16163,9 @@
       <c r="G517" s="2" t="s">
         <v>546</v>
       </c>
+      <c r="H517" s="16" t="s">
+        <v>726</v>
+      </c>
     </row>
     <row r="518" spans="1:8">
       <c r="A518" s="3">
@@ -14648,6 +16189,9 @@
       <c r="G518" s="2" t="s">
         <v>546</v>
       </c>
+      <c r="H518" s="16" t="s">
+        <v>726</v>
+      </c>
     </row>
     <row r="519" spans="1:8">
       <c r="A519" s="3">
@@ -14671,6 +16215,9 @@
       <c r="G519" s="2" t="s">
         <v>546</v>
       </c>
+      <c r="H519" s="16" t="s">
+        <v>723</v>
+      </c>
     </row>
     <row r="520" spans="1:8">
       <c r="A520" s="3">
@@ -14694,6 +16241,9 @@
       <c r="G520" s="2" t="s">
         <v>546</v>
       </c>
+      <c r="H520" s="16" t="s">
+        <v>726</v>
+      </c>
     </row>
     <row r="521" spans="1:8">
       <c r="A521" s="3">
@@ -14717,6 +16267,9 @@
       <c r="G521" s="2" t="s">
         <v>584</v>
       </c>
+      <c r="H521" s="16" t="s">
+        <v>726</v>
+      </c>
     </row>
     <row r="522" spans="1:8">
       <c r="A522" s="3">
@@ -14740,6 +16293,9 @@
       <c r="G522" s="2" t="s">
         <v>546</v>
       </c>
+      <c r="H522" s="16" t="s">
+        <v>726</v>
+      </c>
     </row>
     <row r="523" spans="1:8">
       <c r="A523" s="3">
@@ -14763,6 +16319,9 @@
       <c r="G523" s="2" t="s">
         <v>546</v>
       </c>
+      <c r="H523" s="16" t="s">
+        <v>726</v>
+      </c>
     </row>
     <row r="524" spans="1:8">
       <c r="A524" s="3">
@@ -14786,6 +16345,9 @@
       <c r="G524" s="2" t="s">
         <v>546</v>
       </c>
+      <c r="H524" s="16" t="s">
+        <v>726</v>
+      </c>
     </row>
     <row r="525" spans="1:8">
       <c r="A525" s="3">
@@ -14809,6 +16371,9 @@
       <c r="G525" s="2" t="s">
         <v>546</v>
       </c>
+      <c r="H525" s="16" t="s">
+        <v>726</v>
+      </c>
     </row>
     <row r="526" spans="1:8">
       <c r="A526" s="3">
@@ -14832,6 +16397,9 @@
       <c r="G526" s="2" t="s">
         <v>546</v>
       </c>
+      <c r="H526" s="16" t="s">
+        <v>726</v>
+      </c>
     </row>
     <row r="527" spans="1:8">
       <c r="A527" s="3">
@@ -14855,6 +16423,9 @@
       <c r="G527" s="2" t="s">
         <v>546</v>
       </c>
+      <c r="H527" s="16" t="s">
+        <v>726</v>
+      </c>
     </row>
     <row r="528" spans="1:8">
       <c r="A528" s="3">
@@ -14878,8 +16449,11 @@
       <c r="G528" s="2" t="s">
         <v>637</v>
       </c>
-    </row>
-    <row r="529" spans="1:7">
+      <c r="H528" s="16" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="529" spans="1:8">
       <c r="A529" s="3">
         <v>55010000</v>
       </c>
@@ -14901,8 +16475,11 @@
       <c r="G529" s="2" t="s">
         <v>546</v>
       </c>
-    </row>
-    <row r="530" spans="1:7">
+      <c r="H529" s="16" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="530" spans="1:8">
       <c r="A530" s="3">
         <v>55010600</v>
       </c>
@@ -14924,8 +16501,11 @@
       <c r="G530" s="2" t="s">
         <v>546</v>
       </c>
-    </row>
-    <row r="531" spans="1:7">
+      <c r="H530" s="16" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="531" spans="1:8">
       <c r="A531" s="3">
         <v>55011000</v>
       </c>
@@ -14947,8 +16527,11 @@
       <c r="G531" s="2" t="s">
         <v>546</v>
       </c>
-    </row>
-    <row r="532" spans="1:7">
+      <c r="H531" s="16" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="532" spans="1:8">
       <c r="A532" s="3">
         <v>55011400</v>
       </c>
@@ -14970,8 +16553,11 @@
       <c r="G532" s="2" t="s">
         <v>546</v>
       </c>
-    </row>
-    <row r="533" spans="1:7">
+      <c r="H532" s="16" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="533" spans="1:8">
       <c r="A533" s="3">
         <v>55011800</v>
       </c>
@@ -14993,8 +16579,11 @@
       <c r="G533" s="2" t="s">
         <v>546</v>
       </c>
-    </row>
-    <row r="534" spans="1:7">
+      <c r="H533" s="16" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="534" spans="1:8">
       <c r="A534" s="3">
         <v>55011900</v>
       </c>
@@ -15016,8 +16605,11 @@
       <c r="G534" s="2" t="s">
         <v>546</v>
       </c>
-    </row>
-    <row r="535" spans="1:7">
+      <c r="H534" s="16" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="535" spans="1:8">
       <c r="A535" s="3">
         <v>55012000</v>
       </c>
@@ -15039,8 +16631,11 @@
       <c r="G535" s="2" t="s">
         <v>546</v>
       </c>
-    </row>
-    <row r="536" spans="1:7">
+      <c r="H535" s="16" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="536" spans="1:8">
       <c r="A536" s="8">
         <v>55012300</v>
       </c>
@@ -15062,8 +16657,11 @@
       <c r="G536" s="2" t="s">
         <v>546</v>
       </c>
-    </row>
-    <row r="537" spans="1:7">
+      <c r="H536" s="16" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="537" spans="1:8">
       <c r="A537" s="3">
         <v>55012400</v>
       </c>
@@ -15085,8 +16683,11 @@
       <c r="G537" s="2" t="s">
         <v>546</v>
       </c>
-    </row>
-    <row r="538" spans="1:7">
+      <c r="H537" s="16" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="538" spans="1:8">
       <c r="A538" s="2">
         <v>55012800</v>
       </c>
@@ -15108,8 +16709,11 @@
       <c r="G538" s="2" t="s">
         <v>546</v>
       </c>
-    </row>
-    <row r="539" spans="1:7">
+      <c r="H538" s="16" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="539" spans="1:8">
       <c r="A539" s="3">
         <v>55013900</v>
       </c>
@@ -15131,8 +16735,11 @@
       <c r="G539" s="2" t="s">
         <v>546</v>
       </c>
-    </row>
-    <row r="540" spans="1:7">
+      <c r="H539" s="16" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="540" spans="1:8">
       <c r="A540" s="3">
         <v>55061260</v>
       </c>
@@ -15154,8 +16761,11 @@
       <c r="G540" s="2" t="s">
         <v>698</v>
       </c>
-    </row>
-    <row r="541" spans="1:7">
+      <c r="H540" s="16" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="541" spans="1:8">
       <c r="A541" s="3">
         <v>55061300</v>
       </c>
@@ -15177,8 +16787,11 @@
       <c r="G541" s="2" t="s">
         <v>546</v>
       </c>
-    </row>
-    <row r="542" spans="1:7">
+      <c r="H541" s="16" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="542" spans="1:8">
       <c r="A542" s="3">
         <v>55071000</v>
       </c>
@@ -15200,8 +16813,11 @@
       <c r="G542" s="2" t="s">
         <v>546</v>
       </c>
-    </row>
-    <row r="543" spans="1:7">
+      <c r="H542" s="16" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="543" spans="1:8">
       <c r="A543" s="3">
         <v>55080200</v>
       </c>
@@ -15223,8 +16839,11 @@
       <c r="G543" s="2" t="s">
         <v>546</v>
       </c>
-    </row>
-    <row r="544" spans="1:7">
+      <c r="H543" s="16" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="544" spans="1:8">
       <c r="A544" s="3">
         <v>55080910</v>
       </c>
@@ -15246,8 +16865,11 @@
       <c r="G544" s="2" t="s">
         <v>546</v>
       </c>
-    </row>
-    <row r="545" spans="1:7">
+      <c r="H544" s="16" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="545" spans="1:8">
       <c r="A545" s="3">
         <v>55081320</v>
       </c>
@@ -15269,8 +16891,11 @@
       <c r="G545" s="2" t="s">
         <v>546</v>
       </c>
-    </row>
-    <row r="546" spans="1:7">
+      <c r="H545" s="16" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="546" spans="1:8">
       <c r="A546" s="3">
         <v>55081360</v>
       </c>
@@ -15292,8 +16917,11 @@
       <c r="G546" s="2" t="s">
         <v>546</v>
       </c>
-    </row>
-    <row r="547" spans="1:7">
+      <c r="H546" s="16" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="547" spans="1:8">
       <c r="A547" s="3">
         <v>55081500</v>
       </c>
@@ -15315,8 +16943,11 @@
       <c r="G547" s="2" t="s">
         <v>546</v>
       </c>
-    </row>
-    <row r="548" spans="1:7">
+      <c r="H547" s="16" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="548" spans="1:8">
       <c r="A548" s="3">
         <v>56003500</v>
       </c>
@@ -15338,8 +16969,11 @@
       <c r="G548" s="2" t="s">
         <v>637</v>
       </c>
-    </row>
-    <row r="549" spans="1:7">
+      <c r="H548" s="16" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="549" spans="1:8">
       <c r="A549" s="3">
         <v>56003610</v>
       </c>
@@ -15361,8 +16995,11 @@
       <c r="G549" s="2" t="s">
         <v>637</v>
       </c>
-    </row>
-    <row r="550" spans="1:7">
+      <c r="H549" s="16" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="550" spans="1:8">
       <c r="A550" s="3">
         <v>57000500</v>
       </c>
@@ -15384,8 +17021,11 @@
       <c r="G550" s="2" t="s">
         <v>710</v>
       </c>
-    </row>
-    <row r="551" spans="1:7">
+      <c r="H550" s="16" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="551" spans="1:8">
       <c r="A551" s="3">
         <v>57000600</v>
       </c>
@@ -15407,8 +17047,11 @@
       <c r="G551" s="2" t="s">
         <v>710</v>
       </c>
-    </row>
-    <row r="552" spans="1:7">
+      <c r="H551" s="16" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="552" spans="1:8">
       <c r="A552" s="3">
         <v>57000700</v>
       </c>
@@ -15430,8 +17073,11 @@
       <c r="G552" s="2" t="s">
         <v>710</v>
       </c>
-    </row>
-    <row r="553" spans="1:7">
+      <c r="H552" s="16" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="553" spans="1:8">
       <c r="A553" s="3">
         <v>57000900</v>
       </c>
@@ -15453,8 +17099,11 @@
       <c r="G553" s="2" t="s">
         <v>710</v>
       </c>
-    </row>
-    <row r="554" spans="1:7">
+      <c r="H553" s="16" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="554" spans="1:8">
       <c r="A554" s="3">
         <v>57001000</v>
       </c>
@@ -15476,8 +17125,11 @@
       <c r="G554" s="2" t="s">
         <v>710</v>
       </c>
-    </row>
-    <row r="555" spans="1:7">
+      <c r="H554" s="16" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="555" spans="1:8">
       <c r="A555" s="3">
         <v>57001100</v>
       </c>
@@ -15499,8 +17151,11 @@
       <c r="G555" s="2" t="s">
         <v>710</v>
       </c>
-    </row>
-    <row r="556" spans="1:7">
+      <c r="H555" s="16" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="556" spans="1:8">
       <c r="A556" s="3">
         <v>57001200</v>
       </c>
@@ -15522,8 +17177,11 @@
       <c r="G556" s="2" t="s">
         <v>710</v>
       </c>
-    </row>
-    <row r="557" spans="1:7">
+      <c r="H556" s="16" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="557" spans="1:8">
       <c r="A557" s="3">
         <v>57002000</v>
       </c>
@@ -15545,8 +17203,11 @@
       <c r="G557" s="2" t="s">
         <v>710</v>
       </c>
-    </row>
-    <row r="558" spans="1:7">
+      <c r="H557" s="16" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="558" spans="1:8">
       <c r="A558" s="3">
         <v>57003980</v>
       </c>
@@ -15568,8 +17229,11 @@
       <c r="G558" s="2" t="s">
         <v>710</v>
       </c>
-    </row>
-    <row r="559" spans="1:7">
+      <c r="H558" s="16" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="559" spans="1:8">
       <c r="A559" s="3">
         <v>58001000</v>
       </c>
@@ -15591,10 +17255,161 @@
       <c r="G559" s="2" t="s">
         <v>722</v>
       </c>
-    </row>
-    <row r="564" spans="3:4">
+      <c r="H559" s="16" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="560" spans="1:8">
+      <c r="H560" s="16"/>
+    </row>
+    <row r="561" spans="3:8">
+      <c r="H561" s="16"/>
+    </row>
+    <row r="562" spans="3:8">
+      <c r="H562" s="16"/>
+    </row>
+    <row r="563" spans="3:8">
+      <c r="H563" s="16"/>
+    </row>
+    <row r="564" spans="3:8">
       <c r="C564" s="6"/>
       <c r="D564" s="9"/>
+      <c r="H564" s="16"/>
+    </row>
+    <row r="565" spans="3:8">
+      <c r="H565" s="16"/>
+    </row>
+    <row r="566" spans="3:8">
+      <c r="H566" s="16"/>
+    </row>
+    <row r="567" spans="3:8">
+      <c r="H567" s="16"/>
+    </row>
+    <row r="568" spans="3:8">
+      <c r="H568" s="16"/>
+    </row>
+    <row r="569" spans="3:8">
+      <c r="H569" s="16"/>
+    </row>
+    <row r="570" spans="3:8">
+      <c r="H570" s="16"/>
+    </row>
+    <row r="571" spans="3:8">
+      <c r="H571" s="16"/>
+    </row>
+    <row r="572" spans="3:8">
+      <c r="H572" s="16"/>
+    </row>
+    <row r="573" spans="3:8">
+      <c r="H573" s="16"/>
+    </row>
+    <row r="574" spans="3:8">
+      <c r="H574" s="16"/>
+    </row>
+    <row r="575" spans="3:8">
+      <c r="H575" s="16"/>
+    </row>
+    <row r="576" spans="3:8">
+      <c r="H576" s="16"/>
+    </row>
+    <row r="577" spans="8:8">
+      <c r="H577" s="16"/>
+    </row>
+    <row r="578" spans="8:8">
+      <c r="H578" s="16"/>
+    </row>
+    <row r="579" spans="8:8">
+      <c r="H579" s="16"/>
+    </row>
+    <row r="580" spans="8:8">
+      <c r="H580" s="16"/>
+    </row>
+    <row r="581" spans="8:8">
+      <c r="H581" s="16"/>
+    </row>
+    <row r="582" spans="8:8">
+      <c r="H582" s="16"/>
+    </row>
+    <row r="583" spans="8:8">
+      <c r="H583" s="16"/>
+    </row>
+    <row r="584" spans="8:8">
+      <c r="H584" s="16"/>
+    </row>
+    <row r="585" spans="8:8">
+      <c r="H585" s="16"/>
+    </row>
+    <row r="586" spans="8:8">
+      <c r="H586" s="16"/>
+    </row>
+    <row r="587" spans="8:8">
+      <c r="H587" s="16"/>
+    </row>
+    <row r="588" spans="8:8">
+      <c r="H588" s="16"/>
+    </row>
+    <row r="589" spans="8:8">
+      <c r="H589" s="16"/>
+    </row>
+    <row r="590" spans="8:8">
+      <c r="H590" s="16"/>
+    </row>
+    <row r="591" spans="8:8">
+      <c r="H591" s="16"/>
+    </row>
+    <row r="592" spans="8:8">
+      <c r="H592" s="16"/>
+    </row>
+    <row r="593" spans="8:8">
+      <c r="H593" s="16"/>
+    </row>
+    <row r="594" spans="8:8">
+      <c r="H594" s="16"/>
+    </row>
+    <row r="595" spans="8:8">
+      <c r="H595" s="16"/>
+    </row>
+    <row r="596" spans="8:8">
+      <c r="H596" s="16"/>
+    </row>
+    <row r="597" spans="8:8">
+      <c r="H597" s="16"/>
+    </row>
+    <row r="598" spans="8:8">
+      <c r="H598" s="16"/>
+    </row>
+    <row r="599" spans="8:8">
+      <c r="H599" s="16"/>
+    </row>
+    <row r="600" spans="8:8">
+      <c r="H600" s="16"/>
+    </row>
+    <row r="601" spans="8:8">
+      <c r="H601" s="16"/>
+    </row>
+    <row r="602" spans="8:8">
+      <c r="H602" s="16"/>
+    </row>
+    <row r="603" spans="8:8">
+      <c r="H603" s="16"/>
+    </row>
+    <row r="604" spans="8:8">
+      <c r="H604" s="16"/>
+    </row>
+    <row r="605" spans="8:8">
+      <c r="H605" s="16"/>
+    </row>
+    <row r="606" spans="8:8">
+      <c r="H606" s="16"/>
+    </row>
+    <row r="607" spans="8:8">
+      <c r="H607" s="16"/>
+    </row>
+    <row r="608" spans="8:8">
+      <c r="H608" s="16"/>
+    </row>
+    <row r="609" spans="8:8">
+      <c r="H609" s="16"/>
     </row>
   </sheetData>
   <autoFilter ref="A3:I559" xr:uid="{116636F4-0B36-42B8-8D5A-FFDCF19E5843}"/>
@@ -15610,21 +17425,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000FC520BC0490744C92424147B807F233" ma:contentTypeVersion="8" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="60e1b42fbb60d9aa512efb88a379c083">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="82e331cc-1f66-42ac-a4b2-4143f8fbbba9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ff5dd031b732572a48c46ee3dcbe3567" ns2:_="">
     <xsd:import namespace="82e331cc-1f66-42ac-a4b2-4143f8fbbba9"/>
@@ -15792,14 +17592,52 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6026158A-7816-462A-B114-9F4473EF41C7}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0CE48BAF-DAF4-4846-BF3B-46826FB17565}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="82e331cc-1f66-42ac-a4b2-4143f8fbbba9"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4827F8DD-95FB-4CE9-AE77-0BF926452355}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4827F8DD-95FB-4CE9-AE77-0BF926452355}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0CE48BAF-DAF4-4846-BF3B-46826FB17565}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6026158A-7816-462A-B114-9F4473EF41C7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>